--- a/gpt-dmn-evaluation.xlsx
+++ b/gpt-dmn-evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduhtlklu-my.sharepoint.com/personal/marcel_ewinger_alumni_htl-klu_at/Documents/Uni/Master/2.Semester/Information Systems Engineering/Project/GPT-4-for-Decision-Logic-Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A43CEE57-BBAA-4F95-ACC3-1D1EE3724512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2287405-33E0-4B4C-8F10-72D94E777951}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="8_{A43CEE57-BBAA-4F95-ACC3-1D1EE3724512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0B2C8B5-F151-4316-8093-9AD609277045}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="47">
   <si>
     <t>Temp</t>
   </si>
@@ -173,6 +173,9 @@
   <si>
     <t>STDV of MEAN</t>
   </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,16 +192,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -248,11 +272,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,6 +386,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -297,6 +435,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,12 +740,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D64403-17FB-468D-8303-A84CFBCA623E}">
   <dimension ref="B7:AA314"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W138" sqref="W138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6807,15 +6950,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C4489-1E2D-4E6E-9C7F-DB4F704F54BF}">
-  <dimension ref="B7:AA314"/>
+  <dimension ref="B7:AF314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q139" sqref="Q139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.88671875" customWidth="1"/>
+    <col min="12" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:27" ht="43.2" x14ac:dyDescent="0.3">
@@ -7023,28 +7169,36 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9">
-        <v>1</v>
-      </c>
-      <c r="M12" s="9">
-        <v>1</v>
-      </c>
-      <c r="N12" s="9">
+        <f>COUNTIF(F9:F11,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <f>COUNTIF(G9:G11,"Y")/3</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" ref="H12:N12" si="0">COUNTIF(H9:H11,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W12">
@@ -7143,15 +7297,19 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="9">
+        <f>COUNTIF(X11:X13,"Y")/3</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7">
+        <f t="shared" ref="Y14:AA14" si="1">COUNTIF(Y11:Y13,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7207,28 +7365,36 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="N16" s="9">
+        <f>COUNTIF(F13:F15,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" ref="G16:N16" si="2">COUNTIF(G13:G15,"Y")/3</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16">
@@ -7327,15 +7493,19 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="9">
+        <f>COUNTIF(X15:X17,"Y")/3</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" ref="Y18:AA18" si="3">COUNTIF(Y15:Y17,"Y")/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z18" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7391,28 +7561,36 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="M20" s="9">
-        <v>1</v>
-      </c>
-      <c r="N20" s="9">
+        <f>COUNTIF(F17:F19,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" ref="G20:N20" si="4">COUNTIF(G17:G19,"Y")/3</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W20">
@@ -7511,15 +7689,19 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="9">
+        <f>COUNTIF(X19:X21,"Y")/3</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="7">
+        <f t="shared" ref="Y22:AA22" si="5">COUNTIF(Y19:Y21,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7575,28 +7757,36 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="N24" s="9">
+        <f>COUNTIF(F21:F23,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" ref="G24:N24" si="6">COUNTIF(G21:G23,"Y")/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W24">
@@ -7621,28 +7811,36 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="I25" s="8">
+        <f>AVERAGE(F9:F24)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" ref="G25:N25" si="7">AVERAGE(G9:G24)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="7"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="6">
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="N25" s="8">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
+        <f t="shared" si="7"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W25">
@@ -7665,33 +7863,41 @@
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="Y26" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="9">
+        <f>COUNTIF(X23:X25,"Y")/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y26" s="7">
+        <f t="shared" ref="Y26:AA26" si="8">COUNTIF(Y23:Y25,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z26" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="V27" s="2" t="s">
+      <c r="V27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="6">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="Y27" s="8">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="Z27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="8">
+      <c r="W27" s="13"/>
+      <c r="X27" s="14">
+        <f>AVERAGE(X11:X26)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y27" s="14">
+        <f t="shared" ref="Y27:AA27" si="9">AVERAGE(Y11:Y26)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Z27" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="14">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7900,29 +8106,37 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="7">
-        <v>1</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9">
-        <v>1</v>
-      </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="M35" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="N35" s="9">
-        <v>0.67</v>
+        <f>COUNTIF(F32:F34,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" ref="G35:N35" si="10">COUNTIF(G32:G34,"Y")/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7">
+        <f t="shared" si="10"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M35" s="7">
+        <f t="shared" si="10"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N35" s="7">
+        <f t="shared" si="10"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W35">
         <v>2</v>
@@ -7975,15 +8189,19 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="Y36" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="AA36" s="9">
+        <f>COUNTIF(X33:X35,"Y")/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y36" s="7">
+        <f t="shared" ref="Y36:AA36" si="11">COUNTIF(Y33:Y35,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z36" s="7">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA36" s="7">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -8084,29 +8302,37 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="9">
-        <v>1</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="J39" s="9">
-        <v>1</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="M39" s="9">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0.33</v>
+        <f>COUNTIF(F36:F38,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" ref="G39:N39" si="12">COUNTIF(G36:G38,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="12"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M39" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <f t="shared" si="12"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W39">
         <v>2</v>
@@ -8159,15 +8385,19 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="Y40" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="AA40" s="9">
+        <f>COUNTIF(X37:X39,"Y")/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y40" s="7">
+        <f t="shared" ref="Y40:AA40" si="13">COUNTIF(Y37:Y39,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z40" s="7">
+        <f t="shared" si="13"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA40" s="7">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8268,28 +8498,36 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="9">
-        <v>1</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="J43" s="9">
-        <v>1</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9">
-        <v>0</v>
-      </c>
-      <c r="M43" s="9">
-        <v>0</v>
-      </c>
-      <c r="N43" s="9">
+        <f>COUNTIF(F40:F42,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" ref="G43:N43" si="14">COUNTIF(G40:G42,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W43">
@@ -8343,15 +8581,19 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="Y44" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="AA44" s="9">
+        <f>COUNTIF(X41:X43,"Y")/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y44" s="7">
+        <f t="shared" ref="Y44:AA44" si="15">COUNTIF(Y41:Y43,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z44" s="7">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA44" s="7">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -8452,28 +8694,36 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="7">
-        <v>1</v>
-      </c>
-      <c r="G47" s="9">
-        <v>1</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="I47" s="9">
-        <v>0</v>
-      </c>
-      <c r="J47" s="9">
-        <v>1</v>
-      </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="M47" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="N47" s="9">
+        <f>COUNTIF(F44:F46,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" ref="G47:N47" si="16">COUNTIF(G44:G46,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="16"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
+        <f t="shared" si="16"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M47" s="7">
+        <f t="shared" si="16"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N47" s="7">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W47">
@@ -8498,60 +8748,76 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="8">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="H48" s="8">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="I48" s="8">
+        <f>AVERAGE(F32:F47)</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" ref="G48:N48" si="17">AVERAGE(G32:G47)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H48" s="6">
+        <f t="shared" si="17"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I48" s="6">
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
-      <c r="J48" s="8">
-        <v>1</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8">
+      <c r="J48" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6">
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="6">
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="6">
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="Y48" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="AA48" s="9">
+        <f>COUNTIF(X45:X47,"Y")/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y48" s="7">
+        <f t="shared" ref="Y48:AA48" si="18">COUNTIF(Y45:Y47,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z48" s="7">
+        <f t="shared" si="18"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA48" s="7">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="V49" s="2" t="s">
+      <c r="V49" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="6">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="Y49" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="8">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="AA49" s="8">
+      <c r="W49" s="13"/>
+      <c r="X49" s="14">
+        <f>AVERAGE(X33:X48)</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="Y49" s="14">
+        <f t="shared" ref="Y49:AA49" si="19">AVERAGE(Y33:Y48)</f>
+        <v>1</v>
+      </c>
+      <c r="Z49" s="14">
+        <f t="shared" si="19"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="AA49" s="14">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8745,28 +9011,36 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="7">
-        <v>1</v>
-      </c>
-      <c r="G56" s="9">
-        <v>1</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-      <c r="J56" s="9">
-        <v>0</v>
-      </c>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9">
-        <v>1</v>
-      </c>
-      <c r="M56" s="9">
-        <v>1</v>
-      </c>
-      <c r="N56" s="9">
+        <f>COUNTIF(F53:F55,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" ref="G56:N56" si="20">COUNTIF(G53:G55,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="M56" s="7">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="N56" s="7">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W56">
@@ -8865,15 +9139,19 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="9">
+        <f>COUNTIF(X55:X57,"Y")/3</f>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="7">
+        <f t="shared" ref="Y58:AA58" si="21">COUNTIF(Y55:Y57,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z58" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="7">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8929,29 +9207,37 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="7">
-        <v>1</v>
-      </c>
-      <c r="G60" s="9">
-        <v>1</v>
-      </c>
-      <c r="H60" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="I60" s="9">
-        <v>0</v>
-      </c>
-      <c r="J60" s="9">
-        <v>0</v>
-      </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="M60" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="N60" s="9">
-        <v>0.33</v>
+        <f>COUNTIF(F57:F59,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" ref="G60:N60" si="22">COUNTIF(G57:G59,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H60" s="7">
+        <f t="shared" si="22"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I60" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7">
+        <f t="shared" si="22"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M60" s="7">
+        <f t="shared" si="22"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N60" s="7">
+        <f t="shared" si="22"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W60">
         <v>1</v>
@@ -9049,15 +9335,19 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="Y62" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z62" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="AA62" s="9">
+        <f>COUNTIF(X59:X61,"Y")/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y62" s="7">
+        <f t="shared" ref="Y62:AA62" si="23">COUNTIF(Y59:Y61,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z62" s="7">
+        <f t="shared" si="23"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA62" s="7">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -9113,28 +9403,36 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="7">
-        <v>1</v>
-      </c>
-      <c r="G64" s="9">
-        <v>1</v>
-      </c>
-      <c r="H64" s="9">
-        <v>1</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-      <c r="J64" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9">
-        <v>1</v>
-      </c>
-      <c r="M64" s="9">
-        <v>1</v>
-      </c>
-      <c r="N64" s="9">
+        <f>COUNTIF(F61:F63,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" ref="G64:N64" si="24">COUNTIF(G61:G63,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H64" s="7">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I64" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <f t="shared" si="24"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="M64" s="7">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N64" s="7">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W64">
@@ -9233,15 +9531,19 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y66" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z66" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA66" s="9">
+        <f>COUNTIF(X63:X65,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y66" s="7">
+        <f t="shared" ref="Y66:AA66" si="25">COUNTIF(Y63:Y65,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z66" s="7">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AA66" s="7">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9297,29 +9599,37 @@
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="7">
-        <v>1</v>
-      </c>
-      <c r="G68" s="9">
-        <v>1</v>
-      </c>
-      <c r="H68" s="9">
-        <v>1</v>
-      </c>
-      <c r="I68" s="9">
-        <v>0</v>
-      </c>
-      <c r="J68" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="M68" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="N68" s="9">
-        <v>0.33</v>
+        <f>COUNTIF(F65:F67,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" ref="G68:N68" si="26">COUNTIF(G65:G67,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H68" s="7">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="I68" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M68" s="7">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N68" s="7">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W68">
         <v>1</v>
@@ -9343,29 +9653,37 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="6">
-        <v>1</v>
-      </c>
-      <c r="G69" s="8">
-        <v>1</v>
-      </c>
-      <c r="H69" s="8">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="I69" s="8">
-        <v>0</v>
-      </c>
-      <c r="J69" s="8">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="M69" s="8">
+        <f>AVERAGE(F53:F68)</f>
+        <v>1</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" ref="G69:N69" si="27">AVERAGE(G53:G68)</f>
+        <v>1</v>
+      </c>
+      <c r="H69" s="6">
+        <f t="shared" si="27"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <f t="shared" si="27"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6">
+        <f t="shared" si="27"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M69" s="6">
+        <f t="shared" si="27"/>
         <v>0.75</v>
       </c>
-      <c r="N69" s="8">
-        <v>0.16700000000000001</v>
+      <c r="N69" s="6">
+        <f t="shared" si="27"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="W69">
         <v>2</v>
@@ -9387,33 +9705,41 @@
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
       <c r="X70" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y70" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z70" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA70" s="9">
+        <f>COUNTIF(X67:X69,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y70" s="7">
+        <f t="shared" ref="Y70:Z70" si="28">COUNTIF(Y67:Y69,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z70" s="7">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AA70" s="7">
+        <f t="shared" ref="AA70" si="29">COUNTIF(AA67:AA69,"Y")/3</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="V71" s="2" t="s">
+      <c r="V71" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="6">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="Y71" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z71" s="8">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="AA71" s="8">
+      <c r="W71" s="13"/>
+      <c r="X71" s="14">
+        <f>AVERAGE(X55:X70)</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="Y71" s="14">
+        <f t="shared" ref="Y71:AA71" si="30">AVERAGE(Y55:Y70)</f>
+        <v>1</v>
+      </c>
+      <c r="Z71" s="14">
+        <f t="shared" si="30"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="AA71" s="14">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -9589,28 +9915,36 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="7">
-        <v>1</v>
-      </c>
-      <c r="G77" s="9">
-        <v>1</v>
-      </c>
-      <c r="H77" s="9">
-        <v>1</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
-      <c r="J77" s="9">
-        <v>1</v>
-      </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9">
-        <v>1</v>
-      </c>
-      <c r="M77" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="N77" s="9">
+        <f>COUNTIF(F74:F76,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G77" s="7">
+        <f t="shared" ref="G77:N77" si="31">COUNTIF(G74:G76,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H77" s="7">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="I77" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="7">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="M77" s="7">
+        <f t="shared" si="31"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N77" s="7">
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="V77">
@@ -9757,15 +10091,19 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y80" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z80" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA80" s="9">
+        <f>COUNTIF(X77:X79,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y80" s="7">
+        <f t="shared" ref="Y80:AA80" si="32">COUNTIF(Y77:Y79,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z80" s="7">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AA80" s="7">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -9773,28 +10111,36 @@
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="7">
-        <v>1</v>
-      </c>
-      <c r="G81" s="9">
-        <v>1</v>
-      </c>
-      <c r="H81" s="9">
-        <v>1</v>
-      </c>
-      <c r="I81" s="9">
-        <v>0</v>
-      </c>
-      <c r="J81" s="9">
-        <v>1</v>
-      </c>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9">
-        <v>1</v>
-      </c>
-      <c r="M81" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="N81" s="9">
+        <f>COUNTIF(F78:F80,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G81" s="7">
+        <f t="shared" ref="G81:N81" si="33">COUNTIF(G78:G80,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H81" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="I81" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="M81" s="7">
+        <f t="shared" si="33"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N81" s="7">
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V81">
@@ -9941,15 +10287,19 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
       <c r="X84" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y84" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z84" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA84" s="9">
+        <f>COUNTIF(X81:X83,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y84" s="7">
+        <f t="shared" ref="Y84:AA84" si="34">COUNTIF(Y81:Y83,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z84" s="7">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AA84" s="7">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -9957,29 +10307,37 @@
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="7">
-        <v>1</v>
-      </c>
-      <c r="G85" s="9">
-        <v>1</v>
-      </c>
-      <c r="H85" s="9">
-        <v>1</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="J85" s="9">
-        <v>1</v>
-      </c>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9">
-        <v>0</v>
-      </c>
-      <c r="M85" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="N85" s="9">
-        <v>0.67</v>
+        <f>COUNTIF(F82:F84,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G85" s="7">
+        <f t="shared" ref="G85:N85" si="35">COUNTIF(G82:G84,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H85" s="7">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="I85" s="7">
+        <f t="shared" si="35"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J85" s="7">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="7">
+        <f t="shared" si="35"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N85" s="7">
+        <f t="shared" si="35"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V85">
         <v>0.7</v>
@@ -10125,45 +10483,57 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
       <c r="X88" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y88" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z88" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA88" s="9">
-        <v>0.33</v>
+        <f>COUNTIF(X85:X87,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y88" s="7">
+        <f t="shared" ref="Y88:AA88" si="36">COUNTIF(Y85:Y87,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z88" s="7">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AA88" s="7">
+        <f t="shared" si="36"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="7">
-        <v>1</v>
-      </c>
-      <c r="G89" s="9">
-        <v>1</v>
-      </c>
-      <c r="H89" s="9">
-        <v>1</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="J89" s="9">
-        <v>1</v>
-      </c>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="M89" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="N89" s="9">
-        <v>0.67</v>
+        <f>COUNTIF(F86:F88,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G89" s="7">
+        <f t="shared" ref="G89:N89" si="37">COUNTIF(G86:G88,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H89" s="7">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="I89" s="7">
+        <f t="shared" si="37"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J89" s="7">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7">
+        <f t="shared" si="37"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M89" s="7">
+        <f t="shared" si="37"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N89" s="7">
+        <f t="shared" si="37"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V89">
         <v>1</v>
@@ -10190,29 +10560,37 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="6">
-        <v>1</v>
-      </c>
-      <c r="G90" s="8">
-        <v>1</v>
-      </c>
-      <c r="H90" s="8">
-        <v>1</v>
-      </c>
-      <c r="I90" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="J90" s="8">
-        <v>1</v>
-      </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="M90" s="8">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="N90" s="8">
-        <v>0.83299999999999996</v>
+        <f>AVERAGE(F74:F88)</f>
+        <v>1</v>
+      </c>
+      <c r="G90" s="6">
+        <f t="shared" ref="G90:N90" si="38">AVERAGE(G74:G88)</f>
+        <v>1</v>
+      </c>
+      <c r="H90" s="6">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="I90" s="6">
+        <f t="shared" si="38"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J90" s="6">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6">
+        <f t="shared" si="38"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M90" s="6">
+        <f t="shared" si="38"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="N90" s="6">
+        <f t="shared" si="38"/>
+        <v>0.88888888888888884</v>
       </c>
       <c r="W90">
         <v>1</v>
@@ -10281,16 +10659,20 @@
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
       <c r="X92" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y92" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z92" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA92" s="9">
-        <v>0.33</v>
+        <f>COUNTIF(X89:X91,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y92" s="7">
+        <f t="shared" ref="Y92:AA92" si="39">COUNTIF(Y89:Y91,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z92" s="7">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AA92" s="7">
+        <f t="shared" si="39"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="93" spans="2:27" x14ac:dyDescent="0.3">
@@ -10308,21 +10690,25 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
-      <c r="V93" s="2" t="s">
+      <c r="V93" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W93" s="2"/>
-      <c r="X93" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y93" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z93" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA93" s="8">
-        <v>0.16700000000000001</v>
+      <c r="W93" s="13"/>
+      <c r="X93" s="14">
+        <f>AVERAGE(X77:X92)</f>
+        <v>1</v>
+      </c>
+      <c r="Y93" s="14">
+        <f t="shared" ref="Y93:AA93" si="40">AVERAGE(Y77:Y92)</f>
+        <v>1</v>
+      </c>
+      <c r="Z93" s="14">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AA93" s="14">
+        <f t="shared" si="40"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.3">
@@ -10422,28 +10808,36 @@
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="7">
-        <v>1</v>
-      </c>
-      <c r="G97" s="9">
-        <v>1</v>
-      </c>
-      <c r="H97" s="9">
-        <v>1</v>
-      </c>
-      <c r="I97" s="9">
-        <v>0</v>
-      </c>
-      <c r="J97" s="9">
-        <v>0</v>
-      </c>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="M97" s="9">
-        <v>1</v>
-      </c>
-      <c r="N97" s="9">
+        <f>COUNTIF(F94:F96,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G97" s="7">
+        <f t="shared" ref="G97:N97" si="41">COUNTIF(G94:G96,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H97" s="7">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="I97" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7">
+        <f t="shared" si="41"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M97" s="7">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="N97" s="7">
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -10589,29 +10983,37 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="7">
-        <v>1</v>
-      </c>
-      <c r="G101" s="9">
-        <v>1</v>
-      </c>
-      <c r="H101" s="9">
-        <v>1</v>
-      </c>
-      <c r="I101" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="J101" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9">
-        <v>0</v>
-      </c>
-      <c r="M101" s="9">
-        <v>1</v>
-      </c>
-      <c r="N101" s="9">
-        <v>0.67</v>
+        <f>COUNTIF(F98:F100,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G101" s="7">
+        <f t="shared" ref="G101:N101" si="42">COUNTIF(G98:G100,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H101" s="7">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="I101" s="7">
+        <f t="shared" si="42"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J101" s="7">
+        <f t="shared" si="42"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="7">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="N101" s="7">
+        <f t="shared" si="42"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W101">
         <v>1</v>
@@ -10709,15 +11111,19 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
       <c r="X103" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y103" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z103" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA103" s="9">
+        <f>COUNTIF(X100:X102,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y103" s="7">
+        <f t="shared" ref="Y103:AA103" si="43">COUNTIF(Y100:Y102,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z103" s="7">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AA103" s="7">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -10773,29 +11179,37 @@
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="7">
-        <v>1</v>
-      </c>
-      <c r="G105" s="9">
-        <v>1</v>
-      </c>
-      <c r="H105" s="9">
-        <v>1</v>
-      </c>
-      <c r="I105" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="J105" s="9">
-        <v>0</v>
-      </c>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="M105" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="N105" s="9">
-        <v>0.67</v>
+        <f>COUNTIF(F102:F104,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G105" s="7">
+        <f t="shared" ref="G105:N105" si="44">COUNTIF(G102:G104,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H105" s="7">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="I105" s="7">
+        <f t="shared" si="44"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J105" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7">
+        <f t="shared" si="44"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M105" s="7">
+        <f t="shared" si="44"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N105" s="7">
+        <f t="shared" si="44"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W105">
         <v>1</v>
@@ -10893,16 +11307,20 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
       <c r="X107" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y107" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z107" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA107" s="9">
-        <v>0.33</v>
+        <f>COUNTIF(X104:X106,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y107" s="7">
+        <f t="shared" ref="Y107:AA107" si="45">COUNTIF(Y104:Y106,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z107" s="7">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AA107" s="7">
+        <f t="shared" si="45"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="108" spans="4:27" x14ac:dyDescent="0.3">
@@ -10957,29 +11375,37 @@
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="7">
-        <v>1</v>
-      </c>
-      <c r="G109" s="9">
-        <v>1</v>
-      </c>
-      <c r="H109" s="9">
-        <v>1</v>
-      </c>
-      <c r="I109" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="J109" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9">
-        <v>1</v>
-      </c>
-      <c r="M109" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="N109" s="9">
-        <v>0.67</v>
+        <f>COUNTIF(F106:F108,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G109" s="7">
+        <f t="shared" ref="G109:N109" si="46">COUNTIF(G106:G108,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H109" s="7">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="I109" s="7">
+        <f t="shared" si="46"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J109" s="7">
+        <f t="shared" si="46"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="M109" s="7">
+        <f t="shared" si="46"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N109" s="7">
+        <f t="shared" si="46"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W109">
         <v>1</v>
@@ -11003,29 +11429,37 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="6">
-        <v>1</v>
-      </c>
-      <c r="G110" s="8">
-        <v>1</v>
-      </c>
-      <c r="H110" s="8">
-        <v>1</v>
-      </c>
-      <c r="I110" s="8">
+        <f>AVERAGE(F94:F109)</f>
+        <v>1</v>
+      </c>
+      <c r="G110" s="6">
+        <f t="shared" ref="G110:N110" si="47">AVERAGE(G94:G109)</f>
+        <v>1</v>
+      </c>
+      <c r="H110" s="6">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="I110" s="6">
+        <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
-      <c r="J110" s="8">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="M110" s="8">
+      <c r="J110" s="6">
+        <f t="shared" si="47"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6">
+        <f t="shared" si="47"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="M110" s="6">
+        <f t="shared" si="47"/>
         <v>0.75</v>
       </c>
-      <c r="N110" s="8">
-        <v>0.75</v>
+      <c r="N110" s="6">
+        <f t="shared" si="47"/>
+        <v>0.74999999999999989</v>
       </c>
       <c r="W110">
         <v>2</v>
@@ -11047,15 +11481,19 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
       <c r="X111" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y111" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z111" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA111" s="9">
+        <f>COUNTIF(X108:X110,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y111" s="7">
+        <f t="shared" ref="Y111:AA111" si="48">COUNTIF(Y108:Y110,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z111" s="7">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="AA111" s="7">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -11220,15 +11658,19 @@
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
       <c r="X115" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y115" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="Z115" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="AA115" s="9">
+        <f>COUNTIF(X112:X114,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y115" s="7">
+        <f t="shared" ref="Y115:AA115" si="49">COUNTIF(Y112:Y114,"Y")/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z115" s="7">
+        <f t="shared" si="49"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA115" s="7">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -11261,49 +11703,61 @@
       <c r="N116" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V116" s="2" t="s">
+      <c r="V116" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W116" s="2"/>
-      <c r="X116" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y116" s="8">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="Z116" s="8">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="AA116" s="8">
-        <v>8.3000000000000004E-2</v>
+      <c r="W116" s="13"/>
+      <c r="X116" s="14">
+        <f>AVERAGE(X100:X115)</f>
+        <v>1</v>
+      </c>
+      <c r="Y116" s="14">
+        <f t="shared" ref="Y116:AA116" si="50">AVERAGE(Y100:Y115)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Z116" s="14">
+        <f t="shared" si="50"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AA116" s="14">
+        <f t="shared" si="50"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="117" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="7">
-        <v>1</v>
-      </c>
-      <c r="G117" s="9">
-        <v>1</v>
-      </c>
-      <c r="H117" s="9">
-        <v>1</v>
-      </c>
-      <c r="I117" s="9">
-        <v>0</v>
-      </c>
-      <c r="J117" s="9">
-        <v>0</v>
-      </c>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9">
-        <v>0</v>
-      </c>
-      <c r="M117" s="9">
-        <v>0</v>
-      </c>
-      <c r="N117" s="9">
+        <f>COUNTIF(F114:F116,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G117" s="7">
+        <f t="shared" ref="G117:N117" si="51">COUNTIF(G114:G116,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H117" s="7">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="I117" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="7">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -11404,29 +11858,37 @@
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="7">
-        <v>1</v>
-      </c>
-      <c r="G121" s="9">
-        <v>1</v>
-      </c>
-      <c r="H121" s="9">
-        <v>1</v>
-      </c>
-      <c r="I121" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="J121" s="9">
-        <v>0</v>
-      </c>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="M121" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="N121" s="9">
-        <v>0.67</v>
+        <f>COUNTIF(F118:F120,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G121" s="7">
+        <f t="shared" ref="G121:N121" si="52">COUNTIF(G118:G120,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="H121" s="7">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="I121" s="7">
+        <f t="shared" si="52"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J121" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7">
+        <f t="shared" si="52"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M121" s="7">
+        <f t="shared" si="52"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N121" s="7">
+        <f t="shared" si="52"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V121" t="s">
         <v>0</v>
@@ -11586,29 +12048,37 @@
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="7">
-        <v>1</v>
-      </c>
-      <c r="G125" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="H125" s="9">
-        <v>1</v>
-      </c>
-      <c r="I125" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="J125" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9">
-        <v>0</v>
-      </c>
-      <c r="M125" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="N125" s="9">
-        <v>0.67</v>
+        <f>COUNTIF(F122:F124,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G125" s="7">
+        <f t="shared" ref="G125:N125" si="53">COUNTIF(G122:G124,"Y")/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H125" s="7">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="I125" s="7">
+        <f t="shared" si="53"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J125" s="7">
+        <f t="shared" si="53"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="7">
+        <f t="shared" si="53"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N125" s="7">
+        <f t="shared" si="53"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W125">
         <v>2</v>
@@ -11661,15 +12131,19 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
       <c r="X126" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y126" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="Z126" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA126" s="9">
+        <f>COUNTIF(X123:X125,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y126" s="7">
+        <f t="shared" ref="Y126:AA126" si="54">COUNTIF(Y123:Y125,"Y")/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z126" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AA126" s="7">
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -11766,33 +12240,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="7">
-        <v>1</v>
-      </c>
-      <c r="G129" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="H129" s="9">
-        <v>1</v>
-      </c>
-      <c r="I129" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="J129" s="9">
-        <v>0</v>
-      </c>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="M129" s="9">
-        <v>0</v>
-      </c>
-      <c r="N129" s="9">
-        <v>0.67</v>
+        <f>COUNTIF(F126:F128,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="G129" s="7">
+        <f t="shared" ref="G129:N129" si="55">COUNTIF(G126:G128,"Y")/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H129" s="7">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="I129" s="7">
+        <f t="shared" si="55"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J129" s="7">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7">
+        <f t="shared" si="55"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M129" s="7">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N129" s="7">
+        <f t="shared" si="55"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W129">
         <v>2</v>
@@ -11810,52 +12292,64 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D130" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="6">
-        <v>1</v>
-      </c>
-      <c r="G130" s="8">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="H130" s="8">
-        <v>1</v>
-      </c>
-      <c r="I130" s="8">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="J130" s="8">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="K130" s="8"/>
-      <c r="L130" s="8">
+        <f>AVERAGE(F114:F129)</f>
+        <v>1</v>
+      </c>
+      <c r="G130" s="6">
+        <f t="shared" ref="G130:N130" si="56">AVERAGE(G114:G129)</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="H130" s="6">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="I130" s="6">
+        <f t="shared" si="56"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J130" s="6">
+        <f t="shared" si="56"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6">
+        <f t="shared" si="56"/>
         <v>0.25</v>
       </c>
-      <c r="M130" s="8">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="N130" s="8">
+      <c r="M130" s="6">
+        <f t="shared" si="56"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N130" s="6">
+        <f t="shared" si="56"/>
         <v>0.5</v>
       </c>
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
       <c r="X130" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y130" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z130" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="AA130" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="4:27" x14ac:dyDescent="0.3">
+        <f>COUNTIF(X127:X129,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y130" s="7">
+        <f t="shared" ref="Y130:AA130" si="57">COUNTIF(Y127:Y129,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Z130" s="7">
+        <f t="shared" si="57"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA130" s="7">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="4:32" x14ac:dyDescent="0.3">
       <c r="V131">
         <v>0.7</v>
       </c>
@@ -11875,7 +12369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:32" x14ac:dyDescent="0.3">
       <c r="W132">
         <v>1</v>
       </c>
@@ -11892,7 +12386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:32" x14ac:dyDescent="0.3">
       <c r="W133">
         <v>2</v>
       </c>
@@ -11909,23 +12403,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:32" x14ac:dyDescent="0.3">
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
       <c r="X134" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y134" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="Z134" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="AA134" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="4:27" x14ac:dyDescent="0.3">
+        <f>COUNTIF(X131:X133,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y134" s="7">
+        <f t="shared" ref="Y134:AA134" si="58">COUNTIF(Y131:Y133,"Y")/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z134" s="7">
+        <f t="shared" si="58"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA134" s="7">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
         <v>28</v>
       </c>
@@ -11972,7 +12470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>29</v>
       </c>
@@ -12016,7 +12514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
         <v>30</v>
       </c>
@@ -12060,7 +12558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
         <v>31</v>
       </c>
@@ -12091,19 +12589,23 @@
       <c r="V138" s="5"/>
       <c r="W138" s="5"/>
       <c r="X138" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y138" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="Z138" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="AA138" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="4:27" x14ac:dyDescent="0.3">
+        <f>COUNTIF(X135:X137,"Y")/3</f>
+        <v>1</v>
+      </c>
+      <c r="Y138" s="7">
+        <f t="shared" ref="Y138:AA138" si="59">COUNTIF(Y135:Y137,"Y")/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z138" s="7">
+        <f t="shared" si="59"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA138" s="7">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>2</v>
       </c>
@@ -12131,24 +12633,32 @@
       <c r="N139">
         <v>0</v>
       </c>
-      <c r="V139" s="2" t="s">
+      <c r="V139" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W139" s="2"/>
-      <c r="X139" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y139" s="8">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="Z139" s="8">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="AA139" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="W139" s="13"/>
+      <c r="X139" s="14">
+        <f>AVERAGE(X123:X138)</f>
+        <v>1</v>
+      </c>
+      <c r="Y139" s="14">
+        <f t="shared" ref="Y139:AA139" si="60">AVERAGE(Y123:Y138)</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="Z139" s="14">
+        <f t="shared" si="60"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA139" s="14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AC139" s="16"/>
+      <c r="AD139" s="17"/>
+      <c r="AE139" s="16"/>
+      <c r="AF139" s="16"/>
+    </row>
+    <row r="140" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>32</v>
       </c>
@@ -12176,8 +12686,9 @@
       <c r="N140">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="141" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="X140" s="15"/>
+    </row>
+    <row r="141" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
         <v>4</v>
       </c>
@@ -12206,7 +12717,7 @@
         <v>0.66666666699999999</v>
       </c>
     </row>
-    <row r="142" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D142" t="s">
         <v>33</v>
       </c>
@@ -12235,17 +12746,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="X144" t="s">
+    <row r="143" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="W143" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="X143" s="28"/>
+      <c r="Y143" s="28"/>
+      <c r="Z143" s="28"/>
+      <c r="AA143" s="29"/>
+    </row>
+    <row r="144" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="W144" s="20"/>
+      <c r="X144" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Y144" t="s">
+      <c r="Y144" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Z144" t="s">
+      <c r="Z144" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AA144" t="s">
+      <c r="AA144" s="30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12274,19 +12795,29 @@
       <c r="N145" t="s">
         <v>9</v>
       </c>
-      <c r="W145" t="s">
+      <c r="W145" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="X145" s="12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Y145" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="Z145" s="12">
-        <v>0.39</v>
-      </c>
-      <c r="AA145" s="12">
+      <c r="X145" s="22">
+        <f>SUM(COUNTIF(X11:X13,"Y"),COUNTIF(X33:X35,"Y"),COUNTIF(X55:X57,"Y"),COUNTIF(X77:X79,"Y"),COUNTIF(X100:X102,"Y"),COUNTIF(X123:X125,"Y"))
+/
+SUM(COUNTIF(X11:X13,"Y"),COUNTIF(X11:X13,"N"),COUNTIF(X33:X35,"Y"),COUNTIF(X33:X35,"N"),COUNTIF(X55:X57,"Y"),COUNTIF(X55:X57,"N"),COUNTIF(X77:X79,"Y"),COUNTIF(X77:X79,"N"),COUNTIF(X100:X102,"Y"),COUNTIF(X100:X102,"N"),COUNTIF(X123:X125,"Y"),COUNTIF(X123:X125,"N"))</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="Y145" s="22">
+        <f>SUM(COUNTIF(Y11:Y13,"Y"),COUNTIF(Y33:Y35,"Y"),COUNTIF(Y55:Y57,"Y"),COUNTIF(Y77:Y79,"Y"),COUNTIF(Y100:Y102,"Y"),COUNTIF(Y123:Y125,"Y"))
+/
+SUM(COUNTIF(Y11:Y13,"Y"),COUNTIF(Y11:Y13,"N"),COUNTIF(Y33:Y35,"Y"),COUNTIF(Y33:Y35,"N"),COUNTIF(Y55:Y57,"Y"),COUNTIF(Y55:Y57,"N"),COUNTIF(Y77:Y79,"Y"),COUNTIF(Y77:Y79,"N"),COUNTIF(Y100:Y102,"Y"),COUNTIF(Y100:Y102,"N"),COUNTIF(Y123:Y125,"Y"),COUNTIF(Y123:Y125,"N"))</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="Z145" s="22">
+        <f t="shared" ref="Z145:AA145" si="61">SUM(COUNTIF(Z11:Z13,"Y"),COUNTIF(Z33:Z35,"Y"),COUNTIF(Z55:Z57,"Y"),COUNTIF(Z77:Z79,"Y"),COUNTIF(Z100:Z102,"Y"),COUNTIF(Z123:Z125,"Y"))
+/
+SUM(COUNTIF(Z11:Z13,"Y"),COUNTIF(Z11:Z13,"N"),COUNTIF(Z33:Z35,"Y"),COUNTIF(Z33:Z35,"N"),COUNTIF(Z55:Z57,"Y"),COUNTIF(Z55:Z57,"N"),COUNTIF(Z77:Z79,"Y"),COUNTIF(Z77:Z79,"N"),COUNTIF(Z100:Z102,"Y"),COUNTIF(Z100:Z102,"N"),COUNTIF(Z123:Z125,"Y"),COUNTIF(Z123:Z125,"N"))</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AA145" s="23">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -12321,20 +12852,32 @@
       <c r="N146">
         <v>0</v>
       </c>
-      <c r="W146" t="s">
+      <c r="W146" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="X146" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="Y146" s="12">
-        <v>0.94</v>
-      </c>
-      <c r="Z146" s="12">
-        <v>0.61</v>
-      </c>
-      <c r="AA146" s="12">
-        <v>0.06</v>
+      <c r="X146" s="22">
+        <f>SUM(COUNTIF(X15:X17,"Y"),COUNTIF(X37:X39,"Y"),COUNTIF(X59:X61,"Y"),COUNTIF(X81:X83,"Y"),COUNTIF(X104:X106,"Y"),COUNTIF(X127:X129,"Y"))
+/
+SUM(COUNTIF(X15:X17,"Y"),COUNTIF(X15:X17,"N"),COUNTIF(X37:X39,"Y"),COUNTIF(X37:X39,"N"),COUNTIF(X59:X61,"Y"),COUNTIF(X59:X61,"N"),COUNTIF(X81:X83,"Y"),COUNTIF(X81:X83,"N"),COUNTIF(X104:X106,"Y"),COUNTIF(X104:X106,"N"),COUNTIF(X127:X129,"Y"),COUNTIF(X127:X129,"N"))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y146" s="22">
+        <f>SUM(COUNTIF(Y15:Y17,"Y"),COUNTIF(Y37:Y39,"Y"),COUNTIF(Y59:Y61,"Y"),COUNTIF(Y81:Y83,"Y"),COUNTIF(Y104:Y106,"Y"),COUNTIF(Y127:Y129,"Y"))
+/
+SUM(COUNTIF(Y15:Y17,"Y"),COUNTIF(Y15:Y17,"N"),COUNTIF(Y37:Y39,"Y"),COUNTIF(Y37:Y39,"N"),COUNTIF(Y59:Y61,"Y"),COUNTIF(Y59:Y61,"N"),COUNTIF(Y81:Y83,"Y"),COUNTIF(Y81:Y83,"N"),COUNTIF(Y104:Y106,"Y"),COUNTIF(Y104:Y106,"N"),COUNTIF(Y127:Y129,"Y"),COUNTIF(Y127:Y129,"N"))</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="Z146" s="22">
+        <f>SUM(COUNTIF(Z15:Z17,"Y"),COUNTIF(Z37:Z39,"Y"),COUNTIF(Z59:Z61,"Y"),COUNTIF(Z81:Z83,"Y"),COUNTIF(Z104:Z106,"Y"),COUNTIF(Z127:Z129,"Y"))
+/
+SUM(COUNTIF(Z15:Z17,"Y"),COUNTIF(Z15:Z17,"N"),COUNTIF(Z37:Z39,"Y"),COUNTIF(Z37:Z39,"N"),COUNTIF(Z59:Z61,"Y"),COUNTIF(Z59:Z61,"N"),COUNTIF(Z81:Z83,"Y"),COUNTIF(Z81:Z83,"N"),COUNTIF(Z104:Z106,"Y"),COUNTIF(Z104:Z106,"N"),COUNTIF(Z127:Z129,"Y"),COUNTIF(Z127:Z129,"N"))</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="AA146" s="23">
+        <f>SUM(COUNTIF(AA15:AA17,"Y"),COUNTIF(AA37:AA39,"Y"),COUNTIF(AA59:AA61,"Y"),COUNTIF(AA81:AA83,"Y"),COUNTIF(AA104:AA106,"Y"),COUNTIF(AA127:AA129,"Y"))
+/
+SUM(COUNTIF(AA15:AA17,"Y"),COUNTIF(AA15:AA17,"N"),COUNTIF(AA37:AA39,"Y"),COUNTIF(AA37:AA39,"N"),COUNTIF(AA59:AA61,"Y"),COUNTIF(AA59:AA61,"N"),COUNTIF(AA81:AA83,"Y"),COUNTIF(AA81:AA83,"N"),COUNTIF(AA104:AA106,"Y"),COUNTIF(AA104:AA106,"N"),COUNTIF(AA127:AA129,"Y"),COUNTIF(AA127:AA129,"N"))</f>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="147" spans="4:27" x14ac:dyDescent="0.3">
@@ -12365,23 +12908,35 @@
       <c r="N147">
         <v>0.5</v>
       </c>
-      <c r="W147" t="s">
+      <c r="W147" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="X147" s="12">
-        <v>0.72</v>
-      </c>
-      <c r="Y147" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="Z147" s="12">
-        <v>0.61</v>
-      </c>
-      <c r="AA147" s="12">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="148" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="X147" s="22">
+        <f>SUM(COUNTIF(X19:X21,"Y"),COUNTIF(X41:X43,"Y"),COUNTIF(X63:X65,"Y"),COUNTIF(X85:X87,"Y"),COUNTIF(X108:X110,"Y"),COUNTIF(X131:X133,"Y"))
+/
+SUM(COUNTIF(X19:X21,"Y"),COUNTIF(X19:X21,"N"),COUNTIF(X41:X43,"Y"),COUNTIF(X41:X43,"N"),COUNTIF(X63:X65,"Y"),COUNTIF(X63:X65,"N"),COUNTIF(X85:X87,"Y"),COUNTIF(X85:X87,"N"),COUNTIF(X108:X110,"Y"),COUNTIF(X108:X110,"N"),COUNTIF(X131:X133,"Y"),COUNTIF(X131:X133,"N"))</f>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="Y147" s="22">
+        <f>SUM(COUNTIF(Y19:Y21,"Y"),COUNTIF(Y41:Y43,"Y"),COUNTIF(Y63:Y65,"Y"),COUNTIF(Y85:Y87,"Y"),COUNTIF(Y108:Y110,"Y"),COUNTIF(Y131:Y133,"Y"))
+/
+SUM(COUNTIF(Y19:Y21,"Y"),COUNTIF(Y19:Y21,"N"),COUNTIF(Y41:Y43,"Y"),COUNTIF(Y41:Y43,"N"),COUNTIF(Y63:Y65,"Y"),COUNTIF(Y63:Y65,"N"),COUNTIF(Y85:Y87,"Y"),COUNTIF(Y85:Y87,"N"),COUNTIF(Y108:Y110,"Y"),COUNTIF(Y108:Y110,"N"),COUNTIF(Y131:Y133,"Y"),COUNTIF(Y131:Y133,"N"))</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="Z147" s="22">
+        <f>SUM(COUNTIF(Z19:Z21,"Y"),COUNTIF(Z41:Z43,"Y"),COUNTIF(Z63:Z65,"Y"),COUNTIF(Z85:Z87,"Y"),COUNTIF(Z108:Z110,"Y"),COUNTIF(Z131:Z133,"Y"))
+/
+SUM(COUNTIF(Z19:Z21,"Y"),COUNTIF(Z19:Z21,"N"),COUNTIF(Z41:Z43,"Y"),COUNTIF(Z41:Z43,"N"),COUNTIF(Z63:Z65,"Y"),COUNTIF(Z63:Z65,"N"),COUNTIF(Z85:Z87,"Y"),COUNTIF(Z85:Z87,"N"),COUNTIF(Z108:Z110,"Y"),COUNTIF(Z108:Z110,"N"),COUNTIF(Z131:Z133,"Y"),COUNTIF(Z131:Z133,"N"))</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="AA147" s="23">
+        <f>SUM(COUNTIF(AA19:AA21,"Y"),COUNTIF(AA41:AA43,"Y"),COUNTIF(AA63:AA65,"Y"),COUNTIF(AA85:AA87,"Y"),COUNTIF(AA108:AA110,"Y"),COUNTIF(AA131:AA133,"Y"))
+/
+SUM(COUNTIF(AA19:AA21,"Y"),COUNTIF(AA19:AA21,"N"),COUNTIF(AA41:AA43,"Y"),COUNTIF(AA41:AA43,"N"),COUNTIF(AA63:AA65,"Y"),COUNTIF(AA63:AA65,"N"),COUNTIF(AA85:AA87,"Y"),COUNTIF(AA85:AA87,"N"),COUNTIF(AA108:AA110,"Y"),COUNTIF(AA108:AA110,"N"),COUNTIF(AA131:AA133,"Y"),COUNTIF(AA131:AA133,"N"))</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="4:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E148" t="s">
         <v>40</v>
       </c>
@@ -12409,20 +12964,32 @@
       <c r="N148">
         <v>0.16666666699999999</v>
       </c>
-      <c r="W148" t="s">
+      <c r="W148" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="X148" s="12">
-        <v>0.78</v>
-      </c>
-      <c r="Y148" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="Z148" s="12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AA148" s="12">
-        <v>0.06</v>
+      <c r="X148" s="26">
+        <f>SUM(COUNTIF(X23:X25,"Y"),COUNTIF(X45:X47,"Y"),COUNTIF(X67:X69,"Y"),COUNTIF(X89:X91,"Y"),COUNTIF(X112:X114,"Y"),COUNTIF(X135:X137,"Y"))
+/
+SUM(COUNTIF(X23:X25,"Y"),COUNTIF(X23:X25,"N"),COUNTIF(X45:X47,"Y"),COUNTIF(X45:X47,"N"),COUNTIF(X67:X69,"Y"),COUNTIF(X67:X69,"N"),COUNTIF(X89:X91,"Y"),COUNTIF(X89:X91,"N"),COUNTIF(X112:X114,"Y"),COUNTIF(X112:X114,"N"),COUNTIF(X135:X137,"Y"),COUNTIF(X135:X137,"N"))</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="Y148" s="26">
+        <f>SUM(COUNTIF(Y23:Y25,"Y"),COUNTIF(Y45:Y47,"Y"),COUNTIF(Y67:Y69,"Y"),COUNTIF(Y89:Y91,"Y"),COUNTIF(Y112:Y114,"Y"),COUNTIF(Y135:Y137,"Y"))
+/
+SUM(COUNTIF(Y23:Y25,"Y"),COUNTIF(Y23:Y25,"N"),COUNTIF(Y45:Y47,"Y"),COUNTIF(Y45:Y47,"N"),COUNTIF(Y67:Y69,"Y"),COUNTIF(Y67:Y69,"N"),COUNTIF(Y89:Y91,"Y"),COUNTIF(Y89:Y91,"N"),COUNTIF(Y112:Y114,"Y"),COUNTIF(Y112:Y114,"N"),COUNTIF(Y135:Y137,"Y"),COUNTIF(Y135:Y137,"N"))</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="Z148" s="26">
+        <f>SUM(COUNTIF(Z23:Z25,"Y"),COUNTIF(Z45:Z47,"Y"),COUNTIF(Z67:Z69,"Y"),COUNTIF(Z89:Z91,"Y"),COUNTIF(Z112:Z114,"Y"),COUNTIF(Z135:Z137,"Y"))
+/
+SUM(COUNTIF(Z23:Z25,"Y"),COUNTIF(Z23:Z25,"N"),COUNTIF(Z45:Z47,"Y"),COUNTIF(Z45:Z47,"N"),COUNTIF(Z67:Z69,"Y"),COUNTIF(Z67:Z69,"N"),COUNTIF(Z89:Z91,"Y"),COUNTIF(Z89:Z91,"N"),COUNTIF(Z112:Z114,"Y"),COUNTIF(Z112:Z114,"N"),COUNTIF(Z135:Z137,"Y"),COUNTIF(Z135:Z137,"N"))</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AA148" s="27">
+        <f>SUM(COUNTIF(AA23:AA25,"Y"),COUNTIF(AA45:AA47,"Y"),COUNTIF(AA67:AA69,"Y"),COUNTIF(AA89:AA91,"Y"),COUNTIF(AA112:AA114,"Y"),COUNTIF(AA135:AA137,"Y"))
+/
+SUM(COUNTIF(AA23:AA25,"Y"),COUNTIF(AA23:AA25,"N"),COUNTIF(AA45:AA47,"Y"),COUNTIF(AA45:AA47,"N"),COUNTIF(AA67:AA69,"Y"),COUNTIF(AA67:AA69,"N"),COUNTIF(AA89:AA91,"Y"),COUNTIF(AA89:AA91,"N"),COUNTIF(AA112:AA114,"Y"),COUNTIF(AA112:AA114,"N"),COUNTIF(AA135:AA137,"Y"),COUNTIF(AA135:AA137,"N"))</f>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="149" spans="4:27" x14ac:dyDescent="0.3">
@@ -12455,325 +13022,418 @@
       </c>
     </row>
     <row r="151" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="X151" s="12">
+      <c r="X151" s="18">
         <v>0.5</v>
       </c>
-      <c r="Y151" s="12">
+      <c r="Y151" s="18">
         <v>0.27</v>
       </c>
-      <c r="Z151" s="12">
+      <c r="Z151" s="18">
         <v>0.49</v>
       </c>
-      <c r="AA151" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="X152" s="12">
+      <c r="AA151" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="4:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X152" s="18">
         <v>0.42</v>
       </c>
-      <c r="Y152" s="12">
+      <c r="Y152" s="18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z152" s="12">
+      <c r="Z152" s="18">
         <v>0.39</v>
       </c>
-      <c r="AA152" s="12">
+      <c r="AA152" s="18">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="153" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="X153" s="12">
+      <c r="D153" s="19"/>
+      <c r="E153" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="28"/>
+      <c r="I153" s="28"/>
+      <c r="J153" s="28"/>
+      <c r="K153" s="28"/>
+      <c r="L153" s="28"/>
+      <c r="M153" s="28"/>
+      <c r="N153" s="29"/>
+      <c r="X153" s="18">
         <v>0.44</v>
       </c>
-      <c r="Y153" s="12">
+      <c r="Y153" s="18">
         <v>0.27</v>
       </c>
-      <c r="Z153" s="12">
+      <c r="Z153" s="18">
         <v>0.44</v>
       </c>
-      <c r="AA153" s="12">
+      <c r="AA153" s="18">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="154" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="E154" t="s">
-        <v>43</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="D154" s="31"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L154" t="s">
+      <c r="K154" s="32"/>
+      <c r="L154" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N154" t="s">
+      <c r="N154" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="X154" s="12">
+      <c r="X154" s="18">
         <v>0.34</v>
       </c>
-      <c r="Y154" s="12">
+      <c r="Y154" s="18">
         <v>0.17</v>
       </c>
-      <c r="Z154" s="12">
+      <c r="Z154" s="18">
         <v>0.4</v>
       </c>
-      <c r="AA154" s="12">
+      <c r="AA154" s="18">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="155" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>0.77777777800000003</v>
-      </c>
-      <c r="H155">
-        <v>0.66666666699999999</v>
-      </c>
-      <c r="I155">
-        <v>0.16666666699999999</v>
-      </c>
-      <c r="J155">
-        <v>0.33333333300000001</v>
-      </c>
-      <c r="L155">
-        <v>0.66666666699999999</v>
-      </c>
-      <c r="M155">
-        <v>0.66666666699999999</v>
-      </c>
-      <c r="N155">
-        <v>0.44444444399999999</v>
+      <c r="D155" s="20">
+        <v>0</v>
+      </c>
+      <c r="E155" s="21"/>
+      <c r="F155" s="22">
+        <f>SUM(COUNTIF(F9:F11,"Y"),COUNTIF(F32:F34,"Y"),COUNTIF(F53:F55,"Y"),COUNTIF(F74:F76,"Y"),COUNTIF(F94:F96,"Y"),COUNTIF(F114:F116,"Y"))
+/
+SUM(COUNTIF(F9:F11,"Y"),COUNTIF(F9:F11,"N"),COUNTIF(F32:F34,"Y"),COUNTIF(F32:F34,"N"),COUNTIF(F53:F55,"Y"),COUNTIF(F53:F55,"N"),COUNTIF(F74:F76,"Y"),COUNTIF(F74:F76,"N"),COUNTIF(F94:F96,"Y"),COUNTIF(F94:F96,"N"),COUNTIF(F114:F116,"Y"),COUNTIF(F114:F116,"N"))</f>
+        <v>1</v>
+      </c>
+      <c r="G155" s="22">
+        <f>SUM(COUNTIF(G9:G11,"Y"),COUNTIF(G32:G34,"Y"),COUNTIF(G53:G55,"Y"),COUNTIF(G74:G76,"Y"),COUNTIF(G94:G96,"Y"),COUNTIF(G114:G116,"Y"))
+/
+SUM(COUNTIF(G9:G11,"Y"),COUNTIF(G9:G11,"N"),COUNTIF(G32:G34,"Y"),COUNTIF(G32:G34,"N"),COUNTIF(G53:G55,"Y"),COUNTIF(G53:G55,"N"),COUNTIF(G74:G76,"Y"),COUNTIF(G74:G76,"N"),COUNTIF(G94:G96,"Y"),COUNTIF(G94:G96,"N"),COUNTIF(G114:G116,"Y"),COUNTIF(G114:G116,"N"))</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H155" s="22">
+        <f>SUM(COUNTIF(H9:H11,"Y"),COUNTIF(H32:H34,"Y"),COUNTIF(H53:H55,"Y"),COUNTIF(H74:H76,"Y"),COUNTIF(H94:H96,"Y"),COUNTIF(H114:H116,"Y"))
+/
+SUM(COUNTIF(H9:H11,"Y"),COUNTIF(H9:H11,"N"),COUNTIF(H32:H34,"Y"),COUNTIF(H32:H34,"N"),COUNTIF(H53:H55,"Y"),COUNTIF(H53:H55,"N"),COUNTIF(H74:H76,"Y"),COUNTIF(H74:H76,"N"),COUNTIF(H94:H96,"Y"),COUNTIF(H94:H96,"N"),COUNTIF(H114:H116,"Y"),COUNTIF(H114:H116,"N"))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I155" s="22">
+        <f>SUM(COUNTIF(I9:I11,"Y"),COUNTIF(I32:I34,"Y"),COUNTIF(I53:I55,"Y"),COUNTIF(I74:I76,"Y"),COUNTIF(I94:I96,"Y"),COUNTIF(I114:I116,"Y"))
+/
+SUM(COUNTIF(I9:I11,"Y"),COUNTIF(I9:I11,"N"),COUNTIF(I32:I34,"Y"),COUNTIF(I32:I34,"N"),COUNTIF(I53:I55,"Y"),COUNTIF(I53:I55,"N"),COUNTIF(I74:I76,"Y"),COUNTIF(I74:I76,"N"),COUNTIF(I94:I96,"Y"),COUNTIF(I94:I96,"N"),COUNTIF(I114:I116,"Y"),COUNTIF(I114:I116,"N"))</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J155" s="22">
+        <f>SUM(COUNTIF(J9:J11,"Y"),COUNTIF(J32:J34,"Y"),COUNTIF(J53:J55,"Y"),COUNTIF(J74:J76,"Y"),COUNTIF(J94:J96,"Y"),COUNTIF(J114:J116,"Y"))
+/
+SUM(COUNTIF(J9:J11,"Y"),COUNTIF(J9:J11,"N"),COUNTIF(J32:J34,"Y"),COUNTIF(J32:J34,"N"),COUNTIF(J53:J55,"Y"),COUNTIF(J53:J55,"N"),COUNTIF(J74:J76,"Y"),COUNTIF(J74:J76,"N"),COUNTIF(J94:J96,"Y"),COUNTIF(J94:J96,"N"),COUNTIF(J114:J116,"Y"),COUNTIF(J114:J116,"N"))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K155" s="22"/>
+      <c r="L155" s="22">
+        <f>SUM(COUNTIF(L9:L11,"Y"),COUNTIF(L32:L34,"Y"),COUNTIF(L53:L55,"Y"),COUNTIF(L74:L76,"Y"),COUNTIF(L94:L96,"Y"),COUNTIF(L114:L116,"Y"))
+/
+SUM(COUNTIF(L9:L11,"Y"),COUNTIF(L9:L11,"N"),COUNTIF(L32:L34,"Y"),COUNTIF(L32:L34,"N"),COUNTIF(L53:L55,"Y"),COUNTIF(L53:L55,"N"),COUNTIF(L74:L76,"Y"),COUNTIF(L74:L76,"N"),COUNTIF(L94:L96,"Y"),COUNTIF(L94:L96,"N"),COUNTIF(L114:L116,"Y"),COUNTIF(L114:L116,"N"))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M155" s="22">
+        <f>SUM(COUNTIF(M9:M11,"Y"),COUNTIF(M32:M34,"Y"),COUNTIF(M53:M55,"Y"),COUNTIF(M74:M76,"Y"),COUNTIF(M94:M96,"Y"),COUNTIF(M114:M116,"Y"))
+/
+SUM(COUNTIF(M9:M11,"Y"),COUNTIF(M9:M11,"N"),COUNTIF(M32:M34,"Y"),COUNTIF(M32:M34,"N"),COUNTIF(M53:M55,"Y"),COUNTIF(M53:M55,"N"),COUNTIF(M74:M76,"Y"),COUNTIF(M74:M76,"N"),COUNTIF(M94:M96,"Y"),COUNTIF(M94:M96,"N"),COUNTIF(M114:M116,"Y"),COUNTIF(M114:M116,"N"))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N155" s="23">
+        <f>SUM(COUNTIF(N9:N11,"Y"),COUNTIF(N32:N34,"Y"),COUNTIF(N53:N55,"Y"),COUNTIF(N74:N76,"Y"),COUNTIF(N94:N96,"Y"),COUNTIF(N114:N116,"Y"))
+/
+SUM(COUNTIF(N9:N11,"Y"),COUNTIF(N9:N11,"N"),COUNTIF(N32:N34,"Y"),COUNTIF(N32:N34,"N"),COUNTIF(N53:N55,"Y"),COUNTIF(N53:N55,"N"),COUNTIF(N74:N76,"Y"),COUNTIF(N74:N76,"N"),COUNTIF(N94:N96,"Y"),COUNTIF(N94:N96,"N"),COUNTIF(N114:N116,"Y"),COUNTIF(N114:N116,"N"))</f>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="156" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D156">
+      <c r="D156" s="20">
         <v>0.3</v>
       </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>0.83333333300000001</v>
-      </c>
-      <c r="H156">
-        <v>0.72222222199999997</v>
-      </c>
-      <c r="I156">
-        <v>0.27777777799999998</v>
-      </c>
-      <c r="J156">
-        <v>0.44444444399999999</v>
-      </c>
-      <c r="L156">
-        <v>0.55555555599999995</v>
-      </c>
-      <c r="M156">
+      <c r="E156" s="21"/>
+      <c r="F156" s="22">
+        <f>SUM(COUNTIF(F13:F15,"Y"),COUNTIF(F36:F38,"Y"),COUNTIF(F57:F59,"Y"),COUNTIF(F78:F80,"Y"),COUNTIF(F98:F100,"Y"),COUNTIF(F118:F120,"Y"))
+/
+SUM(COUNTIF(F13:F15,"Y"),COUNTIF(F13:F15,"N"),COUNTIF(F36:F38,"Y"),COUNTIF(F36:F38,"N"),COUNTIF(F57:F59,"Y"),COUNTIF(F57:F59,"N"),COUNTIF(F78:F80,"Y"),COUNTIF(F78:F80,"N"),COUNTIF(F98:F100,"Y"),COUNTIF(F98:F100,"N"),COUNTIF(F118:F120,"Y"),COUNTIF(F118:F120,"N"))</f>
+        <v>1</v>
+      </c>
+      <c r="G156" s="22">
+        <f t="shared" ref="G156:N156" si="62">SUM(COUNTIF(G13:G15,"Y"),COUNTIF(G36:G38,"Y"),COUNTIF(G57:G59,"Y"),COUNTIF(G78:G80,"Y"),COUNTIF(G98:G100,"Y"),COUNTIF(G118:G120,"Y"))
+/
+SUM(COUNTIF(G13:G15,"Y"),COUNTIF(G13:G15,"N"),COUNTIF(G36:G38,"Y"),COUNTIF(G36:G38,"N"),COUNTIF(G57:G59,"Y"),COUNTIF(G57:G59,"N"),COUNTIF(G78:G80,"Y"),COUNTIF(G78:G80,"N"),COUNTIF(G98:G100,"Y"),COUNTIF(G98:G100,"N"),COUNTIF(G118:G120,"Y"),COUNTIF(G118:G120,"N"))</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H156" s="22">
+        <f t="shared" si="62"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="I156" s="22">
+        <f t="shared" si="62"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="J156" s="22">
+        <f t="shared" si="62"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="K156" s="22"/>
+      <c r="L156" s="22">
+        <f t="shared" si="62"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M156" s="22">
+        <f t="shared" si="62"/>
         <v>0.5</v>
       </c>
-      <c r="N156">
+      <c r="N156" s="23">
+        <f t="shared" si="62"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="157" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D157">
+      <c r="D157" s="20">
         <v>0.7</v>
       </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>0.77777777800000003</v>
-      </c>
-      <c r="H157">
-        <v>0.83333333300000001</v>
-      </c>
-      <c r="I157">
-        <v>0.44444444399999999</v>
-      </c>
-      <c r="J157">
-        <v>0.55555555599999995</v>
-      </c>
-      <c r="L157">
-        <v>0.33333333300000001</v>
-      </c>
-      <c r="M157">
-        <v>0.55555555599999995</v>
-      </c>
-      <c r="N157">
-        <v>0.33333333300000001</v>
-      </c>
-    </row>
-    <row r="158" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="G158">
-        <v>0.88888888899999996</v>
-      </c>
-      <c r="H158">
-        <v>0.88888888899999996</v>
-      </c>
-      <c r="I158">
+      <c r="E157" s="21"/>
+      <c r="F157" s="22">
+        <f>SUM(COUNTIF(F17:F19,"Y"),COUNTIF(F40:F42,"Y"),COUNTIF(F61:F63,"Y"),COUNTIF(F82:F84,"Y"),COUNTIF(F102:F104,"Y"),COUNTIF(F122:F124,"Y"))
+/
+SUM(COUNTIF(F17:F19,"Y"),COUNTIF(F17:F19,"N"),COUNTIF(F40:F42,"Y"),COUNTIF(F40:F42,"N"),COUNTIF(F61:F63,"Y"),COUNTIF(F61:F63,"N"),COUNTIF(F82:F84,"Y"),COUNTIF(F82:F84,"N"),COUNTIF(F102:F104,"Y"),COUNTIF(F102:F104,"N"),COUNTIF(F122:F124,"Y"),COUNTIF(F122:F124,"N"))</f>
+        <v>1</v>
+      </c>
+      <c r="G157" s="22">
+        <f t="shared" ref="G157:N157" si="63">SUM(COUNTIF(G17:G19,"Y"),COUNTIF(G40:G42,"Y"),COUNTIF(G61:G63,"Y"),COUNTIF(G82:G84,"Y"),COUNTIF(G102:G104,"Y"),COUNTIF(G122:G124,"Y"))
+/
+SUM(COUNTIF(G17:G19,"Y"),COUNTIF(G17:G19,"N"),COUNTIF(G40:G42,"Y"),COUNTIF(G40:G42,"N"),COUNTIF(G61:G63,"Y"),COUNTIF(G61:G63,"N"),COUNTIF(G82:G84,"Y"),COUNTIF(G82:G84,"N"),COUNTIF(G102:G104,"Y"),COUNTIF(G102:G104,"N"),COUNTIF(G122:G124,"Y"),COUNTIF(G122:G124,"N"))</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H157" s="22">
+        <f t="shared" si="63"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I157" s="22">
+        <f t="shared" si="63"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J157" s="22">
+        <f t="shared" si="63"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="K157" s="22"/>
+      <c r="L157" s="22">
+        <f t="shared" si="63"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M157" s="22">
+        <f t="shared" si="63"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="N157" s="23">
+        <f t="shared" si="63"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="158" spans="4:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D158" s="24">
+        <v>1</v>
+      </c>
+      <c r="E158" s="25"/>
+      <c r="F158" s="26">
+        <f>SUM(COUNTIF(F21:F23,"Y"),COUNTIF(F44:F46,"Y"),COUNTIF(F65:F67,"Y"),COUNTIF(F86:F88,"Y"),COUNTIF(F106:F108,"Y"),COUNTIF(F126:F128,"Y"))
+/
+SUM(COUNTIF(F21:F23,"Y"),COUNTIF(F21:F23,"N"),COUNTIF(F44:F46,"Y"),COUNTIF(F44:F46,"N"),COUNTIF(F65:F67,"Y"),COUNTIF(F65:F67,"N"),COUNTIF(F86:F88,"Y"),COUNTIF(F86:F88,"N"),COUNTIF(F106:F108,"Y"),COUNTIF(F106:F108,"N"),COUNTIF(F126:F128,"Y"),COUNTIF(F126:F128,"N"))</f>
+        <v>1</v>
+      </c>
+      <c r="G158" s="26">
+        <f t="shared" ref="G158:N158" si="64">SUM(COUNTIF(G21:G23,"Y"),COUNTIF(G44:G46,"Y"),COUNTIF(G65:G67,"Y"),COUNTIF(G86:G88,"Y"),COUNTIF(G106:G108,"Y"),COUNTIF(G126:G128,"Y"))
+/
+SUM(COUNTIF(G21:G23,"Y"),COUNTIF(G21:G23,"N"),COUNTIF(G44:G46,"Y"),COUNTIF(G44:G46,"N"),COUNTIF(G65:G67,"Y"),COUNTIF(G65:G67,"N"),COUNTIF(G86:G88,"Y"),COUNTIF(G86:G88,"N"),COUNTIF(G106:G108,"Y"),COUNTIF(G106:G108,"N"),COUNTIF(G126:G128,"Y"),COUNTIF(G126:G128,"N"))</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H158" s="26">
+        <f t="shared" si="64"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I158" s="26">
+        <f t="shared" si="64"/>
         <v>0.5</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="26">
+        <f t="shared" si="64"/>
         <v>0.5</v>
       </c>
-      <c r="L158">
+      <c r="K158" s="26"/>
+      <c r="L158" s="26">
+        <f t="shared" si="64"/>
         <v>0.5</v>
       </c>
-      <c r="M158">
-        <v>0.38888888900000002</v>
-      </c>
-      <c r="N158">
-        <v>0.38888888900000002</v>
-      </c>
-    </row>
-    <row r="159" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D159" t="s">
+      <c r="M158" s="26">
+        <f t="shared" si="64"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="N158" s="27">
+        <f t="shared" si="64"/>
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="164" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
         <v>44</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E164" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="160" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+    </row>
+    <row r="165" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" s="12">
         <v>0.403686714</v>
       </c>
-      <c r="H160">
+      <c r="H165" s="12">
         <v>0.51639777899999995</v>
       </c>
-      <c r="I160">
+      <c r="I165" s="12">
         <v>0.40824829000000001</v>
       </c>
-      <c r="J160">
+      <c r="J165" s="12">
         <v>0.51639777899999995</v>
       </c>
-      <c r="L160">
+      <c r="K165" s="12"/>
+      <c r="L165" s="12">
         <v>0.421637021</v>
       </c>
-      <c r="M160">
+      <c r="M165" s="12">
         <v>0.421637021</v>
       </c>
-      <c r="N160">
+      <c r="N165" s="12">
         <v>0.50184843499999998</v>
       </c>
     </row>
-    <row r="161" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D161">
+    <row r="166" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D166">
         <v>0.3</v>
       </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166" s="12">
         <v>0.40824829000000001</v>
       </c>
-      <c r="H161">
+      <c r="H166" s="12">
         <v>0.44305337900000002</v>
       </c>
-      <c r="I161">
+      <c r="I166" s="12">
         <v>0.25092421799999998</v>
       </c>
-      <c r="J161">
+      <c r="J166" s="12">
         <v>0.45542003399999997</v>
       </c>
-      <c r="L161">
+      <c r="K166" s="12"/>
+      <c r="L166" s="12">
         <v>0.344265186</v>
       </c>
-      <c r="M161">
+      <c r="M166" s="12">
         <v>0.349602949</v>
       </c>
-      <c r="N161">
+      <c r="N166" s="12">
         <v>0.349602949</v>
       </c>
     </row>
-    <row r="162" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D162">
+    <row r="167" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D167">
         <v>0.7</v>
       </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" s="12">
         <v>0.403686714</v>
       </c>
-      <c r="H162">
+      <c r="H167" s="12">
         <v>0.278886676</v>
       </c>
-      <c r="I162">
+      <c r="I167" s="12">
         <v>0.27216552700000002</v>
       </c>
-      <c r="J162">
+      <c r="J167" s="12">
         <v>0.403686714</v>
       </c>
-      <c r="L162">
+      <c r="K167" s="12"/>
+      <c r="L167" s="12">
         <v>0.421637021</v>
       </c>
-      <c r="M162">
+      <c r="M167" s="12">
         <v>0.403686714</v>
       </c>
-      <c r="N162">
+      <c r="N167" s="12">
         <v>0.365148372</v>
       </c>
     </row>
-    <row r="163" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D163">
-        <v>1</v>
-      </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="G163">
+    <row r="168" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" s="12">
         <v>0.172132593</v>
       </c>
-      <c r="H163">
+      <c r="H168" s="12">
         <v>0.27216552700000002</v>
       </c>
-      <c r="I163">
+      <c r="I168" s="12">
         <v>0.40824829000000001</v>
       </c>
-      <c r="J163">
+      <c r="J168" s="12">
         <v>0.40824829000000001</v>
       </c>
-      <c r="L163">
+      <c r="K168" s="12"/>
+      <c r="L168" s="12">
         <v>0.349602949</v>
       </c>
-      <c r="M163">
+      <c r="M168" s="12">
         <v>0.25092421799999998</v>
       </c>
-      <c r="N163">
+      <c r="N168" s="12">
         <v>0.32773069300000002</v>
       </c>
     </row>
@@ -13012,6 +13672,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="W143:AA143"/>
+    <mergeCell ref="E153:N153"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gpt-dmn-evaluation.xlsx
+++ b/gpt-dmn-evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduhtlklu-my.sharepoint.com/personal/marcel_ewinger_alumni_htl-klu_at/Documents/Uni/Master/2.Semester/Information Systems Engineering/Project/GPT-4-for-Decision-Logic-Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="8_{A43CEE57-BBAA-4F95-ACC3-1D1EE3724512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0B2C8B5-F151-4316-8093-9AD609277045}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="8_{A43CEE57-BBAA-4F95-ACC3-1D1EE3724512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AAEDFD2-7C07-43E7-84AB-21E190F3712F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="47">
   <si>
     <t>Temp</t>
   </si>
@@ -356,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,33 +391,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -740,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D64403-17FB-468D-8303-A84CFBCA623E}">
   <dimension ref="B7:AA314"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="W138" sqref="W138"/>
     </sheetView>
   </sheetViews>
@@ -6952,8 +6947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C4489-1E2D-4E6E-9C7F-DB4F704F54BF}">
   <dimension ref="B7:AF314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q139" sqref="Q139"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P162" sqref="P162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7034,31 +7029,15 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
       <c r="V9" t="s">
         <v>0</v>
       </c>
@@ -7082,31 +7061,15 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="T10" t="s">
         <v>15</v>
       </c>
@@ -7121,31 +7084,15 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="V11">
         <v>0</v>
       </c>
@@ -7170,7 +7117,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <f>COUNTIF(F9:F11,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7">
         <f>COUNTIF(G9:G11,"Y")/3</f>
@@ -7178,11 +7125,11 @@
       </c>
       <c r="H12" s="7">
         <f t="shared" ref="H12:N12" si="0">COUNTIF(H9:H11,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="0"/>
@@ -7191,11 +7138,11 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
         <f t="shared" si="0"/>
@@ -7224,31 +7171,15 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
       <c r="W13">
         <v>2</v>
       </c>
@@ -7269,31 +7200,15 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="7">
@@ -7317,31 +7232,15 @@
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="V15">
         <v>0.3</v>
       </c>
@@ -7366,7 +7265,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="7">
         <f>COUNTIF(F13:F15,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" ref="G16:N16" si="2">COUNTIF(G13:G15,"Y")/3</f>
@@ -7374,24 +7273,24 @@
       </c>
       <c r="H16" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7">
         <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
         <f t="shared" si="2"/>
@@ -7420,31 +7319,15 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
       <c r="W17">
         <v>2</v>
       </c>
@@ -7465,31 +7348,15 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="7">
@@ -7513,31 +7380,15 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
       <c r="V19">
         <v>0.7</v>
       </c>
@@ -7562,7 +7413,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="7">
         <f>COUNTIF(F17:F19,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" ref="G20:N20" si="4">COUNTIF(G17:G19,"Y")/3</f>
@@ -7570,24 +7421,24 @@
       </c>
       <c r="H20" s="7">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="M20" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
         <f t="shared" si="4"/>
@@ -7616,31 +7467,15 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
       <c r="W21">
         <v>2</v>
       </c>
@@ -7661,31 +7496,15 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="7">
@@ -7709,31 +7528,15 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
       <c r="V23">
         <v>1</v>
       </c>
@@ -7758,23 +7561,23 @@
       <c r="E24" s="5"/>
       <c r="F24" s="7">
         <f>COUNTIF(F21:F23,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" ref="G24:N24" si="6">COUNTIF(G21:G23,"Y")/3</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7">
@@ -7783,7 +7586,7 @@
       </c>
       <c r="M24" s="7">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="6"/>
@@ -7812,32 +7615,32 @@
       <c r="E25" s="2"/>
       <c r="F25" s="6">
         <f>AVERAGE(F9:F24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:N25" si="7">AVERAGE(G9:G24)</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="7"/>
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6">
         <f t="shared" si="7"/>
-        <v>0.58333333333333326</v>
+        <v>0</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="7"/>
-        <v>0.83333333333333326</v>
+        <v>0</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="7"/>
@@ -7974,31 +7777,15 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
       <c r="T32" t="s">
         <v>23</v>
       </c>
@@ -8013,31 +7800,15 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
       <c r="V33">
         <v>0</v>
       </c>
@@ -8061,31 +7832,15 @@
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
       <c r="W34">
         <v>1</v>
       </c>
@@ -8107,11 +7862,11 @@
       <c r="E35" s="2"/>
       <c r="F35" s="7">
         <f>COUNTIF(F32:F34,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" ref="G35:N35" si="10">COUNTIF(G32:G34,"Y")/3</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="10"/>
@@ -8123,20 +7878,20 @@
       </c>
       <c r="J35" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7">
         <f t="shared" si="10"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="M35" s="7">
         <f t="shared" si="10"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
         <f t="shared" si="10"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="W35">
         <v>2</v>
@@ -8161,31 +7916,15 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="7">
@@ -8209,31 +7948,15 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
       <c r="V37">
         <v>0.3</v>
       </c>
@@ -8257,31 +7980,15 @@
       <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
       <c r="W38">
         <v>1</v>
       </c>
@@ -8303,11 +8010,11 @@
       <c r="E39" s="2"/>
       <c r="F39" s="7">
         <f>COUNTIF(F36:F38,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" ref="G39:N39" si="12">COUNTIF(G36:G38,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="12"/>
@@ -8315,16 +8022,16 @@
       </c>
       <c r="I39" s="7">
         <f t="shared" si="12"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7">
         <f t="shared" si="12"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="M39" s="7">
         <f t="shared" si="12"/>
@@ -8332,7 +8039,7 @@
       </c>
       <c r="N39" s="7">
         <f t="shared" si="12"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W39">
         <v>2</v>
@@ -8357,31 +8064,15 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
       <c r="K40" s="10"/>
-      <c r="L40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="7">
@@ -8405,31 +8096,15 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
       <c r="V41">
         <v>0.7</v>
       </c>
@@ -8453,31 +8128,15 @@
       <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
       <c r="W42">
         <v>1</v>
       </c>
@@ -8499,23 +8158,23 @@
       <c r="E43" s="2"/>
       <c r="F43" s="7">
         <f>COUNTIF(F40:F42,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" ref="G43:N43" si="14">COUNTIF(G40:G42,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="14"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="14"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7">
@@ -8553,31 +8212,15 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
       <c r="K44" s="10"/>
-      <c r="L44" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="7">
@@ -8601,31 +8244,15 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
       <c r="V45">
         <v>1</v>
       </c>
@@ -8649,31 +8276,15 @@
       <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
       <c r="W46">
         <v>1</v>
       </c>
@@ -8695,15 +8306,15 @@
       <c r="E47" s="5"/>
       <c r="F47" s="7">
         <f>COUNTIF(F44:F46,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" ref="G47:N47" si="16">COUNTIF(G44:G46,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="16"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="16"/>
@@ -8711,16 +8322,16 @@
       </c>
       <c r="J47" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7">
         <f t="shared" si="16"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="M47" s="7">
         <f t="shared" si="16"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
         <f t="shared" si="16"/>
@@ -8749,36 +8360,36 @@
       <c r="E48" s="2"/>
       <c r="F48" s="6">
         <f>AVERAGE(F32:F47)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" ref="G48:N48" si="17">AVERAGE(G32:G47)</f>
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="H48" s="6">
         <f t="shared" si="17"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="17"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J48" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M48" s="6">
         <f t="shared" si="17"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N48" s="6">
         <f t="shared" si="17"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
@@ -8876,31 +8487,15 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
       <c r="K53" s="10"/>
-      <c r="L53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N53" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
       <c r="V53" t="s">
         <v>0</v>
       </c>
@@ -8924,31 +8519,15 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
       <c r="T54" t="s">
         <v>24</v>
       </c>
@@ -8963,31 +8542,15 @@
       <c r="E55">
         <v>2</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
       <c r="V55">
         <v>0</v>
       </c>
@@ -9012,11 +8575,11 @@
       <c r="E56" s="2"/>
       <c r="F56" s="7">
         <f>COUNTIF(F53:F55,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" ref="G56:N56" si="20">COUNTIF(G53:G55,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="7">
         <f t="shared" si="20"/>
@@ -9033,11 +8596,11 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="7">
         <f t="shared" si="20"/>
@@ -9066,31 +8629,15 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
       <c r="K57" s="10"/>
-      <c r="L57" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
       <c r="W57">
         <v>2</v>
       </c>
@@ -9111,31 +8658,15 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="7">
@@ -9159,31 +8690,15 @@
       <c r="E59">
         <v>2</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
       <c r="V59">
         <v>0.3</v>
       </c>
@@ -9208,15 +8723,15 @@
       <c r="E60" s="2"/>
       <c r="F60" s="7">
         <f>COUNTIF(F57:F59,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" ref="G60:N60" si="22">COUNTIF(G57:G59,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="7">
         <f t="shared" si="22"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="22"/>
@@ -9229,15 +8744,15 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7">
         <f t="shared" si="22"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="M60" s="7">
         <f t="shared" si="22"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="N60" s="7">
         <f t="shared" si="22"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W60">
         <v>1</v>
@@ -9262,31 +8777,15 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N61" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
       <c r="W61">
         <v>2</v>
       </c>
@@ -9307,31 +8806,15 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="7">
@@ -9355,31 +8838,15 @@
       <c r="E63">
         <v>2</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
       <c r="V63">
         <v>0.7</v>
       </c>
@@ -9404,15 +8871,15 @@
       <c r="E64" s="2"/>
       <c r="F64" s="7">
         <f>COUNTIF(F61:F63,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" ref="G64:N64" si="24">COUNTIF(G61:G63,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="24"/>
@@ -9420,16 +8887,16 @@
       </c>
       <c r="J64" s="7">
         <f t="shared" si="24"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K64" s="7"/>
       <c r="L64" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="7">
         <f t="shared" si="24"/>
@@ -9458,31 +8925,15 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
       <c r="K65" s="10"/>
-      <c r="L65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N65" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
       <c r="W65">
         <v>2</v>
       </c>
@@ -9503,31 +8954,15 @@
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="7">
@@ -9551,31 +8986,15 @@
       <c r="E67">
         <v>2</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
       <c r="V67">
         <v>1</v>
       </c>
@@ -9600,15 +9019,15 @@
       <c r="E68" s="5"/>
       <c r="F68" s="7">
         <f>COUNTIF(F65:F67,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" ref="G68:N68" si="26">COUNTIF(G65:G67,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="26"/>
@@ -9616,20 +9035,20 @@
       </c>
       <c r="J68" s="7">
         <f t="shared" si="26"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K68" s="7"/>
       <c r="L68" s="7">
         <f t="shared" si="26"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="M68" s="7">
         <f t="shared" si="26"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="N68" s="7">
         <f t="shared" si="26"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="W68">
         <v>1</v>
@@ -9654,15 +9073,15 @@
       <c r="E69" s="2"/>
       <c r="F69" s="6">
         <f>AVERAGE(F53:F68)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" ref="G69:N69" si="27">AVERAGE(G53:G68)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="27"/>
-        <v>0.58333333333333326</v>
+        <v>0</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" si="27"/>
@@ -9670,20 +9089,20 @@
       </c>
       <c r="J69" s="6">
         <f t="shared" si="27"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="6">
         <f t="shared" si="27"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="M69" s="6">
         <f t="shared" si="27"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N69" s="6">
         <f t="shared" si="27"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="W69">
         <v>2</v>
@@ -9798,61 +9217,29 @@
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
       <c r="K74" s="10"/>
-      <c r="L74" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M74" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N74" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
       <c r="V75" t="s">
         <v>0</v>
       </c>
@@ -9876,31 +9263,15 @@
       <c r="E76">
         <v>2</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
       <c r="T76" t="s">
         <v>25</v>
       </c>
@@ -9916,15 +9287,15 @@
       <c r="E77" s="2"/>
       <c r="F77" s="7">
         <f>COUNTIF(F74:F76,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" ref="G77:N77" si="31">COUNTIF(G74:G76,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="7">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="7">
         <f t="shared" si="31"/>
@@ -9932,20 +9303,20 @@
       </c>
       <c r="J77" s="7">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" s="7">
         <f t="shared" si="31"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="N77" s="7">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -9973,31 +9344,15 @@
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
       <c r="K78" s="10"/>
-      <c r="L78" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N78" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
       <c r="W78">
         <v>1</v>
       </c>
@@ -10018,31 +9373,15 @@
       <c r="E79">
         <v>1</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-      <c r="L79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
       <c r="W79">
         <v>2</v>
       </c>
@@ -10063,31 +9402,15 @@
       <c r="E80">
         <v>2</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-      <c r="L80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="7">
@@ -10112,15 +9435,15 @@
       <c r="E81" s="2"/>
       <c r="F81" s="7">
         <f>COUNTIF(F78:F80,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" ref="G81:N81" si="33">COUNTIF(G78:G80,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="7">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" s="7">
         <f t="shared" si="33"/>
@@ -10128,20 +9451,20 @@
       </c>
       <c r="J81" s="7">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="7"/>
       <c r="L81" s="7">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" s="7">
         <f t="shared" si="33"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="N81" s="7">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V81">
         <v>0.3</v>
@@ -10169,31 +9492,15 @@
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
       <c r="K82" s="10"/>
-      <c r="L82" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M82" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N82" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
       <c r="W82">
         <v>1</v>
       </c>
@@ -10214,31 +9521,15 @@
       <c r="E83">
         <v>1</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-      <c r="L83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
       <c r="W83">
         <v>2</v>
       </c>
@@ -10259,31 +9550,15 @@
       <c r="E84">
         <v>2</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-      <c r="L84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
       <c r="X84" s="7">
@@ -10308,23 +9583,23 @@
       <c r="E85" s="2"/>
       <c r="F85" s="7">
         <f>COUNTIF(F82:F84,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" ref="G85:N85" si="35">COUNTIF(G82:G84,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="7">
         <f t="shared" si="35"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="J85" s="7">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="7"/>
       <c r="L85" s="7">
@@ -10333,11 +9608,11 @@
       </c>
       <c r="M85" s="7">
         <f t="shared" si="35"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="N85" s="7">
         <f t="shared" si="35"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="V85">
         <v>0.7</v>
@@ -10365,31 +9640,15 @@
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
       <c r="K86" s="10"/>
-      <c r="L86" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M86" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N86" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
       <c r="W86">
         <v>1</v>
       </c>
@@ -10410,31 +9669,15 @@
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-      <c r="L87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
       <c r="W87">
         <v>2</v>
       </c>
@@ -10455,31 +9698,15 @@
       <c r="E88">
         <v>2</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
       <c r="X88" s="7">
@@ -10504,36 +9731,36 @@
       <c r="E89" s="5"/>
       <c r="F89" s="7">
         <f>COUNTIF(F86:F88,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" ref="G89:N89" si="37">COUNTIF(G86:G88,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="7">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="7">
         <f t="shared" si="37"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="J89" s="7">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7">
         <f t="shared" si="37"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="M89" s="7">
         <f t="shared" si="37"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="N89" s="7">
         <f t="shared" si="37"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="V89">
         <v>1</v>
@@ -10561,36 +9788,36 @@
       <c r="E90" s="2"/>
       <c r="F90" s="6">
         <f>AVERAGE(F74:F88)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" ref="G90:N90" si="38">AVERAGE(G74:G88)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" s="6">
         <f t="shared" si="38"/>
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="J90" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="6"/>
       <c r="L90" s="6">
         <f t="shared" si="38"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="M90" s="6">
         <f t="shared" si="38"/>
-        <v>0.44444444444444442</v>
+        <v>0</v>
       </c>
       <c r="N90" s="6">
         <f t="shared" si="38"/>
-        <v>0.88888888888888884</v>
+        <v>0</v>
       </c>
       <c r="W90">
         <v>1</v>
@@ -10718,106 +9945,58 @@
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
       <c r="K94" s="10"/>
-      <c r="L94" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M94" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N94" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
     </row>
     <row r="95" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E95">
         <v>1</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-      <c r="L95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
     </row>
     <row r="96" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E96">
         <v>2</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
       <c r="K96" s="1"/>
-      <c r="L96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
     </row>
     <row r="97" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="7">
         <f>COUNTIF(F94:F96,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" ref="G97:N97" si="41">COUNTIF(G94:G96,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="41"/>
@@ -10830,15 +10009,15 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7">
         <f t="shared" si="41"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="M97" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97" s="7">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="4:27" x14ac:dyDescent="0.3">
@@ -10848,31 +10027,15 @@
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
       <c r="K98" s="10"/>
-      <c r="L98" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M98" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N98" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
       <c r="V98" t="s">
         <v>0</v>
       </c>
@@ -10896,31 +10059,15 @@
       <c r="E99">
         <v>1</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
       <c r="T99" t="s">
         <v>26</v>
       </c>
@@ -10935,31 +10082,15 @@
       <c r="E100">
         <v>2</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
       <c r="V100">
         <v>0</v>
       </c>
@@ -10984,23 +10115,23 @@
       <c r="E101" s="2"/>
       <c r="F101" s="7">
         <f>COUNTIF(F98:F100,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" s="7">
         <f t="shared" ref="G101:N101" si="42">COUNTIF(G98:G100,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" s="7">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="7">
         <f t="shared" si="42"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="J101" s="7">
         <f t="shared" si="42"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K101" s="7"/>
       <c r="L101" s="7">
@@ -11009,11 +10140,11 @@
       </c>
       <c r="M101" s="7">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101" s="7">
         <f t="shared" si="42"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="W101">
         <v>1</v>
@@ -11038,31 +10169,15 @@
       <c r="E102">
         <v>0</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
       <c r="K102" s="10"/>
-      <c r="L102" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M102" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N102" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
       <c r="W102">
         <v>2</v>
       </c>
@@ -11083,31 +10198,15 @@
       <c r="E103">
         <v>1</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
       <c r="K103" s="1"/>
-      <c r="L103" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
       <c r="X103" s="7">
@@ -11131,31 +10230,15 @@
       <c r="E104">
         <v>2</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
       <c r="K104" s="1"/>
-      <c r="L104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
       <c r="V104">
         <v>0.3</v>
       </c>
@@ -11180,19 +10263,19 @@
       <c r="E105" s="2"/>
       <c r="F105" s="7">
         <f>COUNTIF(F102:F104,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" s="7">
         <f t="shared" ref="G105:N105" si="44">COUNTIF(G102:G104,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" s="7">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" s="7">
         <f t="shared" si="44"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="J105" s="7">
         <f t="shared" si="44"/>
@@ -11201,15 +10284,15 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7">
         <f t="shared" si="44"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="M105" s="7">
         <f t="shared" si="44"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="N105" s="7">
         <f t="shared" si="44"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="W105">
         <v>1</v>
@@ -11234,31 +10317,15 @@
       <c r="E106">
         <v>0</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I106" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J106" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
       <c r="K106" s="10"/>
-      <c r="L106" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M106" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N106" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
       <c r="W106">
         <v>2</v>
       </c>
@@ -11279,31 +10346,15 @@
       <c r="E107">
         <v>1</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
       <c r="K107" s="1"/>
-      <c r="L107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
       <c r="X107" s="7">
@@ -11327,31 +10378,15 @@
       <c r="E108">
         <v>2</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
       <c r="K108" s="1"/>
-      <c r="L108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
       <c r="V108">
         <v>0.7</v>
       </c>
@@ -11376,36 +10411,36 @@
       <c r="E109" s="5"/>
       <c r="F109" s="7">
         <f>COUNTIF(F106:F108,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" s="7">
         <f t="shared" ref="G109:N109" si="46">COUNTIF(G106:G108,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="7">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" s="7">
         <f t="shared" si="46"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="J109" s="7">
         <f t="shared" si="46"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="K109" s="7"/>
       <c r="L109" s="7">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" s="7">
         <f t="shared" si="46"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="N109" s="7">
         <f t="shared" si="46"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="W109">
         <v>1</v>
@@ -11430,36 +10465,36 @@
       <c r="E110" s="2"/>
       <c r="F110" s="6">
         <f>AVERAGE(F94:F109)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" ref="G110:N110" si="47">AVERAGE(G94:G109)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" s="6">
         <f t="shared" si="47"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J110" s="6">
         <f t="shared" si="47"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="6">
         <f t="shared" si="47"/>
-        <v>0.41666666666666663</v>
+        <v>0</v>
       </c>
       <c r="M110" s="6">
         <f t="shared" si="47"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N110" s="6">
         <f t="shared" si="47"/>
-        <v>0.74999999999999989</v>
+        <v>0</v>
       </c>
       <c r="W110">
         <v>2</v>
@@ -11585,31 +10620,15 @@
       <c r="E114">
         <v>0</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J114" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
       <c r="K114" s="10"/>
-      <c r="L114" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M114" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N114" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
       <c r="W114">
         <v>2</v>
       </c>
@@ -11630,31 +10649,15 @@
       <c r="E115">
         <v>1</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
       <c r="K115" s="1"/>
-      <c r="L115" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
       <c r="X115" s="7">
@@ -11678,31 +10681,15 @@
       <c r="E116">
         <v>2</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F116" s="4"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
       <c r="K116" s="1"/>
-      <c r="L116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
       <c r="V116" s="13" t="s">
         <v>22</v>
       </c>
@@ -11729,15 +10716,15 @@
       <c r="E117" s="2"/>
       <c r="F117" s="7">
         <f>COUNTIF(F114:F116,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="7">
         <f t="shared" ref="G117:N117" si="51">COUNTIF(G114:G116,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" s="7">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="7">
         <f t="shared" si="51"/>
@@ -11768,110 +10755,62 @@
       <c r="E118">
         <v>0</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J118" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F118" s="4"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
       <c r="K118" s="10"/>
-      <c r="L118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N118" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
     </row>
     <row r="119" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E119">
         <v>1</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
       <c r="K119" s="1"/>
-      <c r="L119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E120">
         <v>2</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F120" s="4"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
       <c r="K120" s="1"/>
-      <c r="L120" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
     </row>
     <row r="121" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="7">
         <f>COUNTIF(F118:F120,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" s="7">
         <f t="shared" ref="G121:N121" si="52">COUNTIF(G118:G120,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" s="7">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" s="7">
         <f t="shared" si="52"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="J121" s="7">
         <f t="shared" si="52"/>
@@ -11880,15 +10819,15 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7">
         <f t="shared" si="52"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="M121" s="7">
         <f t="shared" si="52"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="N121" s="7">
         <f t="shared" si="52"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="V121" t="s">
         <v>0</v>
@@ -11916,31 +10855,15 @@
       <c r="E122">
         <v>0</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J122" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F122" s="4"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
       <c r="K122" s="10"/>
-      <c r="L122" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M122" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N122" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
       <c r="T122" t="s">
         <v>27</v>
       </c>
@@ -11955,31 +10878,15 @@
       <c r="E123">
         <v>1</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F123" s="4"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
       <c r="K123" s="1"/>
-      <c r="L123" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
       <c r="V123">
         <v>0</v>
       </c>
@@ -12003,31 +10910,15 @@
       <c r="E124">
         <v>2</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
       <c r="K124" s="1"/>
-      <c r="L124" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
       <c r="W124">
         <v>1</v>
       </c>
@@ -12049,23 +10940,23 @@
       <c r="E125" s="2"/>
       <c r="F125" s="7">
         <f>COUNTIF(F122:F124,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" s="7">
         <f t="shared" ref="G125:N125" si="53">COUNTIF(G122:G124,"Y")/3</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="H125" s="7">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" s="7">
         <f t="shared" si="53"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="J125" s="7">
         <f t="shared" si="53"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="K125" s="7"/>
       <c r="L125" s="7">
@@ -12074,11 +10965,11 @@
       </c>
       <c r="M125" s="7">
         <f t="shared" si="53"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="N125" s="7">
         <f t="shared" si="53"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="W125">
         <v>2</v>
@@ -12103,31 +10994,15 @@
       <c r="E126">
         <v>0</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J126" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
       <c r="K126" s="10"/>
-      <c r="L126" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M126" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N126" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
       <c r="X126" s="7">
@@ -12151,31 +11026,15 @@
       <c r="E127">
         <v>1</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
       <c r="K127" s="1"/>
-      <c r="L127" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N127" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
       <c r="V127">
         <v>0.3</v>
       </c>
@@ -12199,31 +11058,15 @@
       <c r="E128">
         <v>2</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F128" s="4"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
       <c r="K128" s="1"/>
-      <c r="L128" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
       <c r="W128">
         <v>1</v>
       </c>
@@ -12245,19 +11088,19 @@
       <c r="E129" s="5"/>
       <c r="F129" s="7">
         <f>COUNTIF(F126:F128,"Y")/3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="7">
         <f t="shared" ref="G129:N129" si="55">COUNTIF(G126:G128,"Y")/3</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="H129" s="7">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" s="7">
         <f t="shared" si="55"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="J129" s="7">
         <f t="shared" si="55"/>
@@ -12266,7 +11109,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7">
         <f t="shared" si="55"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="M129" s="7">
         <f t="shared" si="55"/>
@@ -12274,7 +11117,7 @@
       </c>
       <c r="N129" s="7">
         <f t="shared" si="55"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="W129">
         <v>2</v>
@@ -12299,36 +11142,36 @@
       <c r="E130" s="2"/>
       <c r="F130" s="6">
         <f>AVERAGE(F114:F129)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" s="6">
         <f t="shared" ref="G130:N130" si="56">AVERAGE(G114:G129)</f>
-        <v>0.83333333333333326</v>
+        <v>0</v>
       </c>
       <c r="H130" s="6">
         <f t="shared" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" s="6">
         <f t="shared" si="56"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="J130" s="6">
         <f t="shared" si="56"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K130" s="6"/>
       <c r="L130" s="6">
         <f t="shared" si="56"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M130" s="6">
         <f t="shared" si="56"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="N130" s="6">
         <f t="shared" si="56"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
@@ -12747,7 +11590,7 @@
       </c>
     </row>
     <row r="143" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="W143" s="34" t="s">
+      <c r="W143" s="27" t="s">
         <v>46</v>
       </c>
       <c r="X143" s="28"/>
@@ -12757,16 +11600,16 @@
     </row>
     <row r="144" spans="4:32" x14ac:dyDescent="0.3">
       <c r="W144" s="20"/>
-      <c r="X144" s="21" t="s">
+      <c r="X144" t="s">
         <v>18</v>
       </c>
-      <c r="Y144" s="21" t="s">
+      <c r="Y144" t="s">
         <v>19</v>
       </c>
-      <c r="Z144" s="21" t="s">
+      <c r="Z144" t="s">
         <v>20</v>
       </c>
-      <c r="AA144" s="30" t="s">
+      <c r="AA144" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12798,25 +11641,25 @@
       <c r="W145" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="X145" s="22">
+      <c r="X145" s="12">
         <f>SUM(COUNTIF(X11:X13,"Y"),COUNTIF(X33:X35,"Y"),COUNTIF(X55:X57,"Y"),COUNTIF(X77:X79,"Y"),COUNTIF(X100:X102,"Y"),COUNTIF(X123:X125,"Y"))
 /
 SUM(COUNTIF(X11:X13,"Y"),COUNTIF(X11:X13,"N"),COUNTIF(X33:X35,"Y"),COUNTIF(X33:X35,"N"),COUNTIF(X55:X57,"Y"),COUNTIF(X55:X57,"N"),COUNTIF(X77:X79,"Y"),COUNTIF(X77:X79,"N"),COUNTIF(X100:X102,"Y"),COUNTIF(X100:X102,"N"),COUNTIF(X123:X125,"Y"),COUNTIF(X123:X125,"N"))</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="Y145" s="22">
+      <c r="Y145" s="12">
         <f>SUM(COUNTIF(Y11:Y13,"Y"),COUNTIF(Y33:Y35,"Y"),COUNTIF(Y55:Y57,"Y"),COUNTIF(Y77:Y79,"Y"),COUNTIF(Y100:Y102,"Y"),COUNTIF(Y123:Y125,"Y"))
 /
 SUM(COUNTIF(Y11:Y13,"Y"),COUNTIF(Y11:Y13,"N"),COUNTIF(Y33:Y35,"Y"),COUNTIF(Y33:Y35,"N"),COUNTIF(Y55:Y57,"Y"),COUNTIF(Y55:Y57,"N"),COUNTIF(Y77:Y79,"Y"),COUNTIF(Y77:Y79,"N"),COUNTIF(Y100:Y102,"Y"),COUNTIF(Y100:Y102,"N"),COUNTIF(Y123:Y125,"Y"),COUNTIF(Y123:Y125,"N"))</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="Z145" s="22">
+      <c r="Z145" s="12">
         <f t="shared" ref="Z145:AA145" si="61">SUM(COUNTIF(Z11:Z13,"Y"),COUNTIF(Z33:Z35,"Y"),COUNTIF(Z55:Z57,"Y"),COUNTIF(Z77:Z79,"Y"),COUNTIF(Z100:Z102,"Y"),COUNTIF(Z123:Z125,"Y"))
 /
 SUM(COUNTIF(Z11:Z13,"Y"),COUNTIF(Z11:Z13,"N"),COUNTIF(Z33:Z35,"Y"),COUNTIF(Z33:Z35,"N"),COUNTIF(Z55:Z57,"Y"),COUNTIF(Z55:Z57,"N"),COUNTIF(Z77:Z79,"Y"),COUNTIF(Z77:Z79,"N"),COUNTIF(Z100:Z102,"Y"),COUNTIF(Z100:Z102,"N"),COUNTIF(Z123:Z125,"Y"),COUNTIF(Z123:Z125,"N"))</f>
         <v>0.3888888888888889</v>
       </c>
-      <c r="AA145" s="23">
+      <c r="AA145" s="21">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
@@ -12855,25 +11698,25 @@
       <c r="W146" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="X146" s="22">
+      <c r="X146" s="12">
         <f>SUM(COUNTIF(X15:X17,"Y"),COUNTIF(X37:X39,"Y"),COUNTIF(X59:X61,"Y"),COUNTIF(X81:X83,"Y"),COUNTIF(X104:X106,"Y"),COUNTIF(X127:X129,"Y"))
 /
 SUM(COUNTIF(X15:X17,"Y"),COUNTIF(X15:X17,"N"),COUNTIF(X37:X39,"Y"),COUNTIF(X37:X39,"N"),COUNTIF(X59:X61,"Y"),COUNTIF(X59:X61,"N"),COUNTIF(X81:X83,"Y"),COUNTIF(X81:X83,"N"),COUNTIF(X104:X106,"Y"),COUNTIF(X104:X106,"N"),COUNTIF(X127:X129,"Y"),COUNTIF(X127:X129,"N"))</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Y146" s="22">
+      <c r="Y146" s="12">
         <f>SUM(COUNTIF(Y15:Y17,"Y"),COUNTIF(Y37:Y39,"Y"),COUNTIF(Y59:Y61,"Y"),COUNTIF(Y81:Y83,"Y"),COUNTIF(Y104:Y106,"Y"),COUNTIF(Y127:Y129,"Y"))
 /
 SUM(COUNTIF(Y15:Y17,"Y"),COUNTIF(Y15:Y17,"N"),COUNTIF(Y37:Y39,"Y"),COUNTIF(Y37:Y39,"N"),COUNTIF(Y59:Y61,"Y"),COUNTIF(Y59:Y61,"N"),COUNTIF(Y81:Y83,"Y"),COUNTIF(Y81:Y83,"N"),COUNTIF(Y104:Y106,"Y"),COUNTIF(Y104:Y106,"N"),COUNTIF(Y127:Y129,"Y"),COUNTIF(Y127:Y129,"N"))</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="Z146" s="22">
+      <c r="Z146" s="12">
         <f>SUM(COUNTIF(Z15:Z17,"Y"),COUNTIF(Z37:Z39,"Y"),COUNTIF(Z59:Z61,"Y"),COUNTIF(Z81:Z83,"Y"),COUNTIF(Z104:Z106,"Y"),COUNTIF(Z127:Z129,"Y"))
 /
 SUM(COUNTIF(Z15:Z17,"Y"),COUNTIF(Z15:Z17,"N"),COUNTIF(Z37:Z39,"Y"),COUNTIF(Z37:Z39,"N"),COUNTIF(Z59:Z61,"Y"),COUNTIF(Z59:Z61,"N"),COUNTIF(Z81:Z83,"Y"),COUNTIF(Z81:Z83,"N"),COUNTIF(Z104:Z106,"Y"),COUNTIF(Z104:Z106,"N"),COUNTIF(Z127:Z129,"Y"),COUNTIF(Z127:Z129,"N"))</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="AA146" s="23">
+      <c r="AA146" s="21">
         <f>SUM(COUNTIF(AA15:AA17,"Y"),COUNTIF(AA37:AA39,"Y"),COUNTIF(AA59:AA61,"Y"),COUNTIF(AA81:AA83,"Y"),COUNTIF(AA104:AA106,"Y"),COUNTIF(AA127:AA129,"Y"))
 /
 SUM(COUNTIF(AA15:AA17,"Y"),COUNTIF(AA15:AA17,"N"),COUNTIF(AA37:AA39,"Y"),COUNTIF(AA37:AA39,"N"),COUNTIF(AA59:AA61,"Y"),COUNTIF(AA59:AA61,"N"),COUNTIF(AA81:AA83,"Y"),COUNTIF(AA81:AA83,"N"),COUNTIF(AA104:AA106,"Y"),COUNTIF(AA104:AA106,"N"),COUNTIF(AA127:AA129,"Y"),COUNTIF(AA127:AA129,"N"))</f>
@@ -12911,25 +11754,25 @@
       <c r="W147" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="X147" s="22">
+      <c r="X147" s="12">
         <f>SUM(COUNTIF(X19:X21,"Y"),COUNTIF(X41:X43,"Y"),COUNTIF(X63:X65,"Y"),COUNTIF(X85:X87,"Y"),COUNTIF(X108:X110,"Y"),COUNTIF(X131:X133,"Y"))
 /
 SUM(COUNTIF(X19:X21,"Y"),COUNTIF(X19:X21,"N"),COUNTIF(X41:X43,"Y"),COUNTIF(X41:X43,"N"),COUNTIF(X63:X65,"Y"),COUNTIF(X63:X65,"N"),COUNTIF(X85:X87,"Y"),COUNTIF(X85:X87,"N"),COUNTIF(X108:X110,"Y"),COUNTIF(X108:X110,"N"),COUNTIF(X131:X133,"Y"),COUNTIF(X131:X133,"N"))</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="Y147" s="22">
+      <c r="Y147" s="12">
         <f>SUM(COUNTIF(Y19:Y21,"Y"),COUNTIF(Y41:Y43,"Y"),COUNTIF(Y63:Y65,"Y"),COUNTIF(Y85:Y87,"Y"),COUNTIF(Y108:Y110,"Y"),COUNTIF(Y131:Y133,"Y"))
 /
 SUM(COUNTIF(Y19:Y21,"Y"),COUNTIF(Y19:Y21,"N"),COUNTIF(Y41:Y43,"Y"),COUNTIF(Y41:Y43,"N"),COUNTIF(Y63:Y65,"Y"),COUNTIF(Y63:Y65,"N"),COUNTIF(Y85:Y87,"Y"),COUNTIF(Y85:Y87,"N"),COUNTIF(Y108:Y110,"Y"),COUNTIF(Y108:Y110,"N"),COUNTIF(Y131:Y133,"Y"),COUNTIF(Y131:Y133,"N"))</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="Z147" s="22">
+      <c r="Z147" s="12">
         <f>SUM(COUNTIF(Z19:Z21,"Y"),COUNTIF(Z41:Z43,"Y"),COUNTIF(Z63:Z65,"Y"),COUNTIF(Z85:Z87,"Y"),COUNTIF(Z108:Z110,"Y"),COUNTIF(Z131:Z133,"Y"))
 /
 SUM(COUNTIF(Z19:Z21,"Y"),COUNTIF(Z19:Z21,"N"),COUNTIF(Z41:Z43,"Y"),COUNTIF(Z41:Z43,"N"),COUNTIF(Z63:Z65,"Y"),COUNTIF(Z63:Z65,"N"),COUNTIF(Z85:Z87,"Y"),COUNTIF(Z85:Z87,"N"),COUNTIF(Z108:Z110,"Y"),COUNTIF(Z108:Z110,"N"),COUNTIF(Z131:Z133,"Y"),COUNTIF(Z131:Z133,"N"))</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="AA147" s="23">
+      <c r="AA147" s="21">
         <f>SUM(COUNTIF(AA19:AA21,"Y"),COUNTIF(AA41:AA43,"Y"),COUNTIF(AA63:AA65,"Y"),COUNTIF(AA85:AA87,"Y"),COUNTIF(AA108:AA110,"Y"),COUNTIF(AA131:AA133,"Y"))
 /
 SUM(COUNTIF(AA19:AA21,"Y"),COUNTIF(AA19:AA21,"N"),COUNTIF(AA41:AA43,"Y"),COUNTIF(AA41:AA43,"N"),COUNTIF(AA63:AA65,"Y"),COUNTIF(AA63:AA65,"N"),COUNTIF(AA85:AA87,"Y"),COUNTIF(AA85:AA87,"N"),COUNTIF(AA108:AA110,"Y"),COUNTIF(AA108:AA110,"N"),COUNTIF(AA131:AA133,"Y"),COUNTIF(AA131:AA133,"N"))</f>
@@ -12964,28 +11807,28 @@
       <c r="N148">
         <v>0.16666666699999999</v>
       </c>
-      <c r="W148" s="24" t="s">
+      <c r="W148" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="X148" s="26">
+      <c r="X148" s="24">
         <f>SUM(COUNTIF(X23:X25,"Y"),COUNTIF(X45:X47,"Y"),COUNTIF(X67:X69,"Y"),COUNTIF(X89:X91,"Y"),COUNTIF(X112:X114,"Y"),COUNTIF(X135:X137,"Y"))
 /
 SUM(COUNTIF(X23:X25,"Y"),COUNTIF(X23:X25,"N"),COUNTIF(X45:X47,"Y"),COUNTIF(X45:X47,"N"),COUNTIF(X67:X69,"Y"),COUNTIF(X67:X69,"N"),COUNTIF(X89:X91,"Y"),COUNTIF(X89:X91,"N"),COUNTIF(X112:X114,"Y"),COUNTIF(X112:X114,"N"),COUNTIF(X135:X137,"Y"),COUNTIF(X135:X137,"N"))</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="Y148" s="26">
+      <c r="Y148" s="24">
         <f>SUM(COUNTIF(Y23:Y25,"Y"),COUNTIF(Y45:Y47,"Y"),COUNTIF(Y67:Y69,"Y"),COUNTIF(Y89:Y91,"Y"),COUNTIF(Y112:Y114,"Y"),COUNTIF(Y135:Y137,"Y"))
 /
 SUM(COUNTIF(Y23:Y25,"Y"),COUNTIF(Y23:Y25,"N"),COUNTIF(Y45:Y47,"Y"),COUNTIF(Y45:Y47,"N"),COUNTIF(Y67:Y69,"Y"),COUNTIF(Y67:Y69,"N"),COUNTIF(Y89:Y91,"Y"),COUNTIF(Y89:Y91,"N"),COUNTIF(Y112:Y114,"Y"),COUNTIF(Y112:Y114,"N"),COUNTIF(Y135:Y137,"Y"),COUNTIF(Y135:Y137,"N"))</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="Z148" s="26">
+      <c r="Z148" s="24">
         <f>SUM(COUNTIF(Z23:Z25,"Y"),COUNTIF(Z45:Z47,"Y"),COUNTIF(Z67:Z69,"Y"),COUNTIF(Z89:Z91,"Y"),COUNTIF(Z112:Z114,"Y"),COUNTIF(Z135:Z137,"Y"))
 /
 SUM(COUNTIF(Z23:Z25,"Y"),COUNTIF(Z23:Z25,"N"),COUNTIF(Z45:Z47,"Y"),COUNTIF(Z45:Z47,"N"),COUNTIF(Z67:Z69,"Y"),COUNTIF(Z67:Z69,"N"),COUNTIF(Z89:Z91,"Y"),COUNTIF(Z89:Z91,"N"),COUNTIF(Z112:Z114,"Y"),COUNTIF(Z112:Z114,"N"),COUNTIF(Z135:Z137,"Y"),COUNTIF(Z135:Z137,"N"))</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AA148" s="27">
+      <c r="AA148" s="25">
         <f>SUM(COUNTIF(AA23:AA25,"Y"),COUNTIF(AA45:AA47,"Y"),COUNTIF(AA67:AA69,"Y"),COUNTIF(AA89:AA91,"Y"),COUNTIF(AA112:AA114,"Y"),COUNTIF(AA135:AA137,"Y"))
 /
 SUM(COUNTIF(AA23:AA25,"Y"),COUNTIF(AA23:AA25,"N"),COUNTIF(AA45:AA47,"Y"),COUNTIF(AA45:AA47,"N"),COUNTIF(AA67:AA69,"Y"),COUNTIF(AA67:AA69,"N"),COUNTIF(AA89:AA91,"Y"),COUNTIF(AA89:AA91,"N"),COUNTIF(AA112:AA114,"Y"),COUNTIF(AA112:AA114,"N"),COUNTIF(AA135:AA137,"Y"),COUNTIF(AA135:AA137,"N"))</f>
@@ -13077,31 +11920,29 @@
       </c>
     </row>
     <row r="154" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D154" s="31"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32" t="s">
+      <c r="D154" s="20"/>
+      <c r="F154" t="s">
         <v>2</v>
       </c>
-      <c r="G154" s="32" t="s">
+      <c r="G154" t="s">
         <v>3</v>
       </c>
-      <c r="H154" s="32" t="s">
+      <c r="H154" t="s">
         <v>4</v>
       </c>
-      <c r="I154" s="32" t="s">
+      <c r="I154" t="s">
         <v>5</v>
       </c>
-      <c r="J154" s="32" t="s">
+      <c r="J154" t="s">
         <v>6</v>
       </c>
-      <c r="K154" s="32"/>
-      <c r="L154" s="32" t="s">
+      <c r="L154" t="s">
         <v>7</v>
       </c>
-      <c r="M154" s="32" t="s">
+      <c r="M154" t="s">
         <v>8</v>
       </c>
-      <c r="N154" s="33" t="s">
+      <c r="N154" s="26" t="s">
         <v>9</v>
       </c>
       <c r="X154" s="18">
@@ -13121,184 +11962,181 @@
       <c r="D155" s="20">
         <v>0</v>
       </c>
-      <c r="E155" s="21"/>
-      <c r="F155" s="22">
+      <c r="F155" s="12" t="e">
         <f>SUM(COUNTIF(F9:F11,"Y"),COUNTIF(F32:F34,"Y"),COUNTIF(F53:F55,"Y"),COUNTIF(F74:F76,"Y"),COUNTIF(F94:F96,"Y"),COUNTIF(F114:F116,"Y"))
 /
 SUM(COUNTIF(F9:F11,"Y"),COUNTIF(F9:F11,"N"),COUNTIF(F32:F34,"Y"),COUNTIF(F32:F34,"N"),COUNTIF(F53:F55,"Y"),COUNTIF(F53:F55,"N"),COUNTIF(F74:F76,"Y"),COUNTIF(F74:F76,"N"),COUNTIF(F94:F96,"Y"),COUNTIF(F94:F96,"N"),COUNTIF(F114:F116,"Y"),COUNTIF(F114:F116,"N"))</f>
-        <v>1</v>
-      </c>
-      <c r="G155" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G155" s="12" t="e">
         <f>SUM(COUNTIF(G9:G11,"Y"),COUNTIF(G32:G34,"Y"),COUNTIF(G53:G55,"Y"),COUNTIF(G74:G76,"Y"),COUNTIF(G94:G96,"Y"),COUNTIF(G114:G116,"Y"))
 /
 SUM(COUNTIF(G9:G11,"Y"),COUNTIF(G9:G11,"N"),COUNTIF(G32:G34,"Y"),COUNTIF(G32:G34,"N"),COUNTIF(G53:G55,"Y"),COUNTIF(G53:G55,"N"),COUNTIF(G74:G76,"Y"),COUNTIF(G74:G76,"N"),COUNTIF(G94:G96,"Y"),COUNTIF(G94:G96,"N"),COUNTIF(G114:G116,"Y"),COUNTIF(G114:G116,"N"))</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="H155" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H155" s="12" t="e">
         <f>SUM(COUNTIF(H9:H11,"Y"),COUNTIF(H32:H34,"Y"),COUNTIF(H53:H55,"Y"),COUNTIF(H74:H76,"Y"),COUNTIF(H94:H96,"Y"),COUNTIF(H114:H116,"Y"))
 /
 SUM(COUNTIF(H9:H11,"Y"),COUNTIF(H9:H11,"N"),COUNTIF(H32:H34,"Y"),COUNTIF(H32:H34,"N"),COUNTIF(H53:H55,"Y"),COUNTIF(H53:H55,"N"),COUNTIF(H74:H76,"Y"),COUNTIF(H74:H76,"N"),COUNTIF(H94:H96,"Y"),COUNTIF(H94:H96,"N"),COUNTIF(H114:H116,"Y"),COUNTIF(H114:H116,"N"))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I155" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I155" s="12" t="e">
         <f>SUM(COUNTIF(I9:I11,"Y"),COUNTIF(I32:I34,"Y"),COUNTIF(I53:I55,"Y"),COUNTIF(I74:I76,"Y"),COUNTIF(I94:I96,"Y"),COUNTIF(I114:I116,"Y"))
 /
 SUM(COUNTIF(I9:I11,"Y"),COUNTIF(I9:I11,"N"),COUNTIF(I32:I34,"Y"),COUNTIF(I32:I34,"N"),COUNTIF(I53:I55,"Y"),COUNTIF(I53:I55,"N"),COUNTIF(I74:I76,"Y"),COUNTIF(I74:I76,"N"),COUNTIF(I94:I96,"Y"),COUNTIF(I94:I96,"N"),COUNTIF(I114:I116,"Y"),COUNTIF(I114:I116,"N"))</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J155" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J155" s="12" t="e">
         <f>SUM(COUNTIF(J9:J11,"Y"),COUNTIF(J32:J34,"Y"),COUNTIF(J53:J55,"Y"),COUNTIF(J74:J76,"Y"),COUNTIF(J94:J96,"Y"),COUNTIF(J114:J116,"Y"))
 /
 SUM(COUNTIF(J9:J11,"Y"),COUNTIF(J9:J11,"N"),COUNTIF(J32:J34,"Y"),COUNTIF(J32:J34,"N"),COUNTIF(J53:J55,"Y"),COUNTIF(J53:J55,"N"),COUNTIF(J74:J76,"Y"),COUNTIF(J74:J76,"N"),COUNTIF(J94:J96,"Y"),COUNTIF(J94:J96,"N"),COUNTIF(J114:J116,"Y"),COUNTIF(J114:J116,"N"))</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K155" s="22"/>
-      <c r="L155" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12" t="e">
         <f>SUM(COUNTIF(L9:L11,"Y"),COUNTIF(L32:L34,"Y"),COUNTIF(L53:L55,"Y"),COUNTIF(L74:L76,"Y"),COUNTIF(L94:L96,"Y"),COUNTIF(L114:L116,"Y"))
 /
 SUM(COUNTIF(L9:L11,"Y"),COUNTIF(L9:L11,"N"),COUNTIF(L32:L34,"Y"),COUNTIF(L32:L34,"N"),COUNTIF(L53:L55,"Y"),COUNTIF(L53:L55,"N"),COUNTIF(L74:L76,"Y"),COUNTIF(L74:L76,"N"),COUNTIF(L94:L96,"Y"),COUNTIF(L94:L96,"N"),COUNTIF(L114:L116,"Y"),COUNTIF(L114:L116,"N"))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M155" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M155" s="12" t="e">
         <f>SUM(COUNTIF(M9:M11,"Y"),COUNTIF(M32:M34,"Y"),COUNTIF(M53:M55,"Y"),COUNTIF(M74:M76,"Y"),COUNTIF(M94:M96,"Y"),COUNTIF(M114:M116,"Y"))
 /
 SUM(COUNTIF(M9:M11,"Y"),COUNTIF(M9:M11,"N"),COUNTIF(M32:M34,"Y"),COUNTIF(M32:M34,"N"),COUNTIF(M53:M55,"Y"),COUNTIF(M53:M55,"N"),COUNTIF(M74:M76,"Y"),COUNTIF(M74:M76,"N"),COUNTIF(M94:M96,"Y"),COUNTIF(M94:M96,"N"),COUNTIF(M114:M116,"Y"),COUNTIF(M114:M116,"N"))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N155" s="23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N155" s="21" t="e">
         <f>SUM(COUNTIF(N9:N11,"Y"),COUNTIF(N32:N34,"Y"),COUNTIF(N53:N55,"Y"),COUNTIF(N74:N76,"Y"),COUNTIF(N94:N96,"Y"),COUNTIF(N114:N116,"Y"))
 /
 SUM(COUNTIF(N9:N11,"Y"),COUNTIF(N9:N11,"N"),COUNTIF(N32:N34,"Y"),COUNTIF(N32:N34,"N"),COUNTIF(N53:N55,"Y"),COUNTIF(N53:N55,"N"),COUNTIF(N74:N76,"Y"),COUNTIF(N74:N76,"N"),COUNTIF(N94:N96,"Y"),COUNTIF(N94:N96,"N"),COUNTIF(N114:N116,"Y"),COUNTIF(N114:N116,"N"))</f>
-        <v>0.44444444444444442</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="156" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D156" s="20">
         <v>0.3</v>
       </c>
-      <c r="E156" s="21"/>
-      <c r="F156" s="22">
+      <c r="F156" s="12" t="e">
         <f>SUM(COUNTIF(F13:F15,"Y"),COUNTIF(F36:F38,"Y"),COUNTIF(F57:F59,"Y"),COUNTIF(F78:F80,"Y"),COUNTIF(F98:F100,"Y"),COUNTIF(F118:F120,"Y"))
 /
 SUM(COUNTIF(F13:F15,"Y"),COUNTIF(F13:F15,"N"),COUNTIF(F36:F38,"Y"),COUNTIF(F36:F38,"N"),COUNTIF(F57:F59,"Y"),COUNTIF(F57:F59,"N"),COUNTIF(F78:F80,"Y"),COUNTIF(F78:F80,"N"),COUNTIF(F98:F100,"Y"),COUNTIF(F98:F100,"N"),COUNTIF(F118:F120,"Y"),COUNTIF(F118:F120,"N"))</f>
-        <v>1</v>
-      </c>
-      <c r="G156" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G156" s="12" t="e">
         <f t="shared" ref="G156:N156" si="62">SUM(COUNTIF(G13:G15,"Y"),COUNTIF(G36:G38,"Y"),COUNTIF(G57:G59,"Y"),COUNTIF(G78:G80,"Y"),COUNTIF(G98:G100,"Y"),COUNTIF(G118:G120,"Y"))
 /
 SUM(COUNTIF(G13:G15,"Y"),COUNTIF(G13:G15,"N"),COUNTIF(G36:G38,"Y"),COUNTIF(G36:G38,"N"),COUNTIF(G57:G59,"Y"),COUNTIF(G57:G59,"N"),COUNTIF(G78:G80,"Y"),COUNTIF(G78:G80,"N"),COUNTIF(G98:G100,"Y"),COUNTIF(G98:G100,"N"),COUNTIF(G118:G120,"Y"),COUNTIF(G118:G120,"N"))</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H156" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H156" s="12" t="e">
         <f t="shared" si="62"/>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="I156" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I156" s="12" t="e">
         <f t="shared" si="62"/>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="J156" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J156" s="12" t="e">
         <f t="shared" si="62"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="K156" s="22"/>
-      <c r="L156" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12" t="e">
         <f t="shared" si="62"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="M156" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M156" s="12" t="e">
         <f t="shared" si="62"/>
-        <v>0.5</v>
-      </c>
-      <c r="N156" s="23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N156" s="21" t="e">
         <f t="shared" si="62"/>
-        <v>0.5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="157" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D157" s="20">
         <v>0.7</v>
       </c>
-      <c r="E157" s="21"/>
-      <c r="F157" s="22">
+      <c r="F157" s="12" t="e">
         <f>SUM(COUNTIF(F17:F19,"Y"),COUNTIF(F40:F42,"Y"),COUNTIF(F61:F63,"Y"),COUNTIF(F82:F84,"Y"),COUNTIF(F102:F104,"Y"),COUNTIF(F122:F124,"Y"))
 /
 SUM(COUNTIF(F17:F19,"Y"),COUNTIF(F17:F19,"N"),COUNTIF(F40:F42,"Y"),COUNTIF(F40:F42,"N"),COUNTIF(F61:F63,"Y"),COUNTIF(F61:F63,"N"),COUNTIF(F82:F84,"Y"),COUNTIF(F82:F84,"N"),COUNTIF(F102:F104,"Y"),COUNTIF(F102:F104,"N"),COUNTIF(F122:F124,"Y"),COUNTIF(F122:F124,"N"))</f>
-        <v>1</v>
-      </c>
-      <c r="G157" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G157" s="12" t="e">
         <f t="shared" ref="G157:N157" si="63">SUM(COUNTIF(G17:G19,"Y"),COUNTIF(G40:G42,"Y"),COUNTIF(G61:G63,"Y"),COUNTIF(G82:G84,"Y"),COUNTIF(G102:G104,"Y"),COUNTIF(G122:G124,"Y"))
 /
 SUM(COUNTIF(G17:G19,"Y"),COUNTIF(G17:G19,"N"),COUNTIF(G40:G42,"Y"),COUNTIF(G40:G42,"N"),COUNTIF(G61:G63,"Y"),COUNTIF(G61:G63,"N"),COUNTIF(G82:G84,"Y"),COUNTIF(G82:G84,"N"),COUNTIF(G102:G104,"Y"),COUNTIF(G102:G104,"N"),COUNTIF(G122:G124,"Y"),COUNTIF(G122:G124,"N"))</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="H157" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H157" s="12" t="e">
         <f t="shared" si="63"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I157" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I157" s="12" t="e">
         <f t="shared" si="63"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="J157" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J157" s="12" t="e">
         <f t="shared" si="63"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="K157" s="22"/>
-      <c r="L157" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12" t="e">
         <f t="shared" si="63"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M157" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M157" s="12" t="e">
         <f t="shared" si="63"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="N157" s="23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N157" s="21" t="e">
         <f t="shared" si="63"/>
-        <v>0.33333333333333331</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="158" spans="4:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D158" s="24">
-        <v>1</v>
-      </c>
-      <c r="E158" s="25"/>
-      <c r="F158" s="26">
+      <c r="D158" s="22">
+        <v>1</v>
+      </c>
+      <c r="E158" s="23"/>
+      <c r="F158" s="24" t="e">
         <f>SUM(COUNTIF(F21:F23,"Y"),COUNTIF(F44:F46,"Y"),COUNTIF(F65:F67,"Y"),COUNTIF(F86:F88,"Y"),COUNTIF(F106:F108,"Y"),COUNTIF(F126:F128,"Y"))
 /
 SUM(COUNTIF(F21:F23,"Y"),COUNTIF(F21:F23,"N"),COUNTIF(F44:F46,"Y"),COUNTIF(F44:F46,"N"),COUNTIF(F65:F67,"Y"),COUNTIF(F65:F67,"N"),COUNTIF(F86:F88,"Y"),COUNTIF(F86:F88,"N"),COUNTIF(F106:F108,"Y"),COUNTIF(F106:F108,"N"),COUNTIF(F126:F128,"Y"),COUNTIF(F126:F128,"N"))</f>
-        <v>1</v>
-      </c>
-      <c r="G158" s="26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G158" s="24" t="e">
         <f t="shared" ref="G158:N158" si="64">SUM(COUNTIF(G21:G23,"Y"),COUNTIF(G44:G46,"Y"),COUNTIF(G65:G67,"Y"),COUNTIF(G86:G88,"Y"),COUNTIF(G106:G108,"Y"),COUNTIF(G126:G128,"Y"))
 /
 SUM(COUNTIF(G21:G23,"Y"),COUNTIF(G21:G23,"N"),COUNTIF(G44:G46,"Y"),COUNTIF(G44:G46,"N"),COUNTIF(G65:G67,"Y"),COUNTIF(G65:G67,"N"),COUNTIF(G86:G88,"Y"),COUNTIF(G86:G88,"N"),COUNTIF(G106:G108,"Y"),COUNTIF(G106:G108,"N"),COUNTIF(G126:G128,"Y"),COUNTIF(G126:G128,"N"))</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="H158" s="26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H158" s="24" t="e">
         <f t="shared" si="64"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="I158" s="26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I158" s="24" t="e">
         <f t="shared" si="64"/>
-        <v>0.5</v>
-      </c>
-      <c r="J158" s="26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J158" s="24" t="e">
         <f t="shared" si="64"/>
-        <v>0.5</v>
-      </c>
-      <c r="K158" s="26"/>
-      <c r="L158" s="26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K158" s="24"/>
+      <c r="L158" s="24" t="e">
         <f t="shared" si="64"/>
-        <v>0.5</v>
-      </c>
-      <c r="M158" s="26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M158" s="24" t="e">
         <f t="shared" si="64"/>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="N158" s="27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N158" s="25" t="e">
         <f t="shared" si="64"/>
-        <v>0.3888888888888889</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="164" spans="4:14" x14ac:dyDescent="0.3">
